--- a/CA_Clayton_2022.xlsx
+++ b/CA_Clayton_2022.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="13440"/>
   </bookViews>
   <sheets>
-    <sheet name="My Random Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$$-809]#,##0"/>
   </numFmts>
   <fonts count="26">
@@ -226,13 +226,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -248,7 +241,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,8 +276,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +300,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -302,38 +348,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,30 +369,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -385,19 +385,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,163 +553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,11 +612,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,23 +660,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,151 +676,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1207,8 +1207,8 @@
   <sheetPr/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>

--- a/CA_Clayton_2022.xlsx
+++ b/CA_Clayton_2022.xlsx
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>

--- a/CA_Clayton_2022.xlsx
+++ b/CA_Clayton_2022.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="28800" windowHeight="13440"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Random Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>City of Clayton</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Total Liabilities</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>DEFERRED INFLOWS OF RESOURCES</t>
@@ -183,11 +186,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="[$$-809]#,##0"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$$-809]#,##0"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -232,6 +235,142 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -239,142 +378,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -385,13 +388,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,157 +556,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,17 +591,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +607,39 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,21 +659,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -657,179 +674,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -846,7 +849,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -854,7 +857,7 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1205,13 +1208,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="41.5714285714286" customWidth="1"/>
     <col min="2" max="4" width="18.7142857142857" customWidth="1"/>
@@ -1707,7 +1710,7 @@
         <v>3666339</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:4">
+    <row r="42" ht="15" spans="1:16">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
@@ -1719,6 +1722,9 @@
       </c>
       <c r="D42" s="10">
         <v>4314623</v>
+      </c>
+      <c r="P42" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:4">
@@ -1729,7 +1735,7 @@
     </row>
     <row r="44" ht="15" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1737,7 +1743,7 @@
     </row>
     <row r="45" ht="15" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="9">
         <v>2471384</v>
@@ -1751,7 +1757,7 @@
     </row>
     <row r="46" ht="15" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>12</v>
@@ -1765,7 +1771,7 @@
     </row>
     <row r="47" ht="15" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="10">
         <v>2471384</v>
@@ -1785,7 +1791,7 @@
     </row>
     <row r="49" ht="15" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1793,7 +1799,7 @@
     </row>
     <row r="50" ht="15" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="9">
         <v>29116205</v>
@@ -1807,7 +1813,7 @@
     </row>
     <row r="51" ht="15" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="9">
         <v>9890048</v>
@@ -1821,7 +1827,7 @@
     </row>
     <row r="52" ht="15" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="9">
         <v>5873482</v>
@@ -1835,7 +1841,7 @@
     </row>
     <row r="53" ht="15" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="14">
         <v>44879735</v>
@@ -1855,7 +1861,7 @@
     </row>
     <row r="55" ht="15" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>

--- a/CA_Clayton_2022.xlsx
+++ b/CA_Clayton_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xlsx2ixbrl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79813D70-C4DE-4D72-AE95-5A5CC81101E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B8EFB91-6CE8-41F5-9F19-2226E3C410CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="645" windowWidth="17520" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="1380" windowWidth="16545" windowHeight="13770" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement of Net Position" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="164">
   <si>
     <t>City of Clayton</t>
   </si>
@@ -277,12 +277,6 @@
     <t>Depreciable assets net</t>
   </si>
   <si>
-    <t>of Resources and Fund Balances</t>
-  </si>
-  <si>
-    <t>Total Liabilities, Deferred Inflows</t>
-  </si>
-  <si>
     <t>Total Fund Balance</t>
   </si>
   <si>
@@ -310,12 +304,6 @@
     <t>Deferred Inflows of Resources:</t>
   </si>
   <si>
-    <t>Compensated absences</t>
-  </si>
-  <si>
-    <t>Other payables</t>
-  </si>
-  <si>
     <t>Liabilities:</t>
   </si>
   <si>
@@ -325,18 +313,6 @@
     <t>LIABILITIES, DEFERRED INFLOWS OF</t>
   </si>
   <si>
-    <t>Advance to other funds</t>
-  </si>
-  <si>
-    <t>Due from other funds</t>
-  </si>
-  <si>
-    <t>Prepaid items</t>
-  </si>
-  <si>
-    <t>Accounts receivable</t>
-  </si>
-  <si>
     <t>Funds</t>
   </si>
   <si>
@@ -503,6 +479,54 @@
   </si>
   <si>
     <t>Statement of Revenues, Expenditures and Changes in Fund Balance</t>
+  </si>
+  <si>
+    <t>Cash and investments modified accrual</t>
+  </si>
+  <si>
+    <t>Accounts receivable modified accrual</t>
+  </si>
+  <si>
+    <t>Interest receivable modified accrual</t>
+  </si>
+  <si>
+    <t>Investment in affordable housing modified accrual</t>
+  </si>
+  <si>
+    <t>Notes receivable modified accrual</t>
+  </si>
+  <si>
+    <t>Prepaid items modified accrual</t>
+  </si>
+  <si>
+    <t>Due from other funds modified accrual</t>
+  </si>
+  <si>
+    <t>Advance to other funds modified accrual</t>
+  </si>
+  <si>
+    <t>Accounts payable modified accrual</t>
+  </si>
+  <si>
+    <t>Other payables modified accrual</t>
+  </si>
+  <si>
+    <t>Accrued payroll modified accrual</t>
+  </si>
+  <si>
+    <t>Compensated absences modified accrual</t>
+  </si>
+  <si>
+    <t>Unearned revenue modified accrual</t>
+  </si>
+  <si>
+    <t>Total Liabilities modified accrual</t>
+  </si>
+  <si>
+    <t>Total Assets modified accrual</t>
+  </si>
+  <si>
+    <t>Total Liabilities, Deferred Inflows of Resources and Fund Balances</t>
   </si>
 </sst>
 </file>
@@ -512,7 +536,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-809]#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -564,6 +588,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -611,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -635,7 +666,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
@@ -670,6 +700,11 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1624,12 +1659,12 @@
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -1650,848 +1685,846 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083BF37A-61D6-4E9A-B2A8-49ECD5BB8352}">
   <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38" style="18" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="38" style="17" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="20"/>
+      <c r="A2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="20"/>
+      <c r="A3" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="25"/>
-      <c r="D5" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24" t="s">
-        <v>114</v>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="22" t="s">
+      <c r="B8" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="28">
+      <c r="A10" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="27">
         <v>5985880</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>693391</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>1857892</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>2674360</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>1769715</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <v>12981238</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="29">
+      <c r="A11" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="28">
         <v>646294</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="29">
+      <c r="C11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="28">
         <v>487021</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="28">
         <v>1133315</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="29">
+      <c r="A12" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="28">
         <v>25257</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="29">
+      <c r="C12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="28">
         <v>25257</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="29">
+      <c r="A13" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="28">
         <v>3170453</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="29">
+      <c r="E13" s="22"/>
+      <c r="F13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="28">
         <v>3170453</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="29">
+      <c r="A14" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="28">
         <v>3311550</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="29">
+      <c r="E14" s="22"/>
+      <c r="F14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="28">
         <v>3311550</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="29">
+      <c r="A15" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="28">
         <v>52578</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="29">
+      <c r="C15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="28">
         <v>52578</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="29">
+      <c r="A16" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="28">
         <v>120893</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="29">
+      <c r="C16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="28">
         <v>120893</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="22" t="s">
+      <c r="A17" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="28">
+      <c r="A18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="27">
         <v>6830902</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="27">
         <v>693391</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <v>8339895</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <v>2674360</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="27">
         <v>2256736</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <v>20795284</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="A20" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="A21" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="A22" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="27">
+        <v>1826</v>
+      </c>
+      <c r="C23" s="27">
+        <v>54858</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="27">
+        <v>67916</v>
+      </c>
+      <c r="G23" s="27">
+        <v>24992</v>
+      </c>
+      <c r="H23" s="27">
+        <v>149592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="28">
+        <v>71658</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="28">
+        <v>2700</v>
+      </c>
+      <c r="H24" s="28">
+        <v>74358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="29">
         <v>37</v>
       </c>
-      <c r="B23" s="28">
-        <v>1826</v>
-      </c>
-      <c r="C23" s="28">
+      <c r="C25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="28">
+        <v>83645</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="28">
+        <v>83645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="28">
+        <v>332166</v>
+      </c>
+      <c r="H27" s="28">
+        <v>332166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="28">
+        <v>157166</v>
+      </c>
+      <c r="C28" s="28">
         <v>54858</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="28">
+        <v>67916</v>
+      </c>
+      <c r="G28" s="28">
+        <v>359858</v>
+      </c>
+      <c r="H28" s="28">
+        <v>639798</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="28">
+        <v>260379</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="28">
+        <v>2722200</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="28">
+        <v>2982579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="28">
+        <v>260379</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="28">
+        <v>2722200</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="28">
+        <v>2982579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="28">
+        <v>173471</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="28">
-        <v>67916</v>
-      </c>
-      <c r="G23" s="28">
-        <v>24992</v>
-      </c>
-      <c r="H23" s="28">
-        <v>149592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="29">
-        <v>71658</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="29">
-        <v>2700</v>
-      </c>
-      <c r="H24" s="29">
-        <v>74358</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="30">
-        <v>37</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="30">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="29">
-        <v>83645</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="29">
-        <v>83645</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="29">
-        <v>332166</v>
-      </c>
-      <c r="H27" s="29">
-        <v>332166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="29">
-        <v>157166</v>
-      </c>
-      <c r="C28" s="29">
-        <v>54858</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="29">
-        <v>67916</v>
-      </c>
-      <c r="G28" s="29">
-        <v>359858</v>
-      </c>
-      <c r="H28" s="29">
-        <v>639798</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="29">
-        <v>260379</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="29">
-        <v>2722200</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="29">
-        <v>2982579</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="29">
-        <v>260379</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="29">
-        <v>2722200</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="29">
-        <v>2982579</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="29"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="29">
+      <c r="F35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="28">
         <v>173471</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="29">
-        <v>173471</v>
-      </c>
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="29">
+      <c r="A36" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="28">
         <v>32509</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="28">
         <v>5617695</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="29">
+      <c r="E36" s="21"/>
+      <c r="F36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="28">
         <v>1069391</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="28">
         <v>6719595</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="29">
+      <c r="A37" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="28">
         <v>495019</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="29">
+      <c r="C37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="28">
         <v>709802</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="28">
         <v>1204821</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="29">
+      <c r="A38" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="28">
         <v>606024</v>
       </c>
-      <c r="D38" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="29">
+      <c r="D38" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="28">
         <v>2606444</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="28">
         <v>117685</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="28">
         <v>3330153</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="29">
+      <c r="A39" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="28">
         <v>5744867</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="29">
+      <c r="C39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="28">
         <v>5744867</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="29">
+      <c r="A40" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="28">
         <v>6413357</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="28">
         <v>638533</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="28">
         <v>5617695</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="29">
+      <c r="E40" s="22"/>
+      <c r="F40" s="28">
         <v>2606444</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="28">
         <v>1896878</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="28">
         <v>17172907</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="28">
+      <c r="A41" s="19"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="27">
         <v>6830902</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="27">
         <v>693391</v>
       </c>
-      <c r="D42" s="28">
+      <c r="D42" s="27">
         <v>8339895</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="28">
+      <c r="E42" s="22"/>
+      <c r="F42" s="27">
         <v>2674360</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="27">
         <v>2256736</v>
       </c>
-      <c r="H42" s="28">
+      <c r="H42" s="27">
         <v>20795284</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="19"/>
+      <c r="B45" s="18"/>
     </row>
     <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A166" s="20" t="s">
+      <c r="A166" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B167" s="19">
+      <c r="B167" s="18">
         <v>44</v>
       </c>
     </row>
@@ -2505,974 +2538,974 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D128B9-3C99-4CB8-94D6-1A47AE05AB64}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="38.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="30">
+        <v>2846766</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="30">
+        <v>2846766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="31">
+        <v>111400</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="31">
+        <v>111400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="31">
+        <v>1204882</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="31">
+        <v>442230</v>
+      </c>
+      <c r="H12" s="31">
+        <v>1647112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="31">
+        <v>563908</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="31">
+        <v>563908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="31">
+        <v>162881</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="31">
+        <v>162881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="31">
+        <v>114026</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="31">
+        <v>140326</v>
+      </c>
+      <c r="H15" s="31">
+        <v>254352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="31">
+        <v>151409</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="31">
+        <v>151409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="31">
+        <v>135233</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="31">
+        <v>1467024</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="31">
+        <v>1170041</v>
+      </c>
+      <c r="H17" s="31">
+        <v>2772298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="31">
+        <v>174443</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="31">
+        <v>174443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="31">
+        <v>587740</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="31">
+        <v>587740</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="31">
+        <v>305645</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="31">
+        <v>305645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="31">
+        <v>-185018</v>
+      </c>
+      <c r="C22" s="31">
+        <v>-24383</v>
+      </c>
+      <c r="D22" s="31">
+        <v>17961</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="31">
+        <v>-80986</v>
+      </c>
+      <c r="G22" s="31">
+        <v>-52490</v>
+      </c>
+      <c r="H22" s="31">
+        <v>-324916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="31">
+        <v>40844</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="32">
+        <v>648</v>
+      </c>
+      <c r="H23" s="31">
+        <v>41492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="31">
+        <v>4897877</v>
+      </c>
+      <c r="C24" s="31">
+        <v>1180499</v>
+      </c>
+      <c r="D24" s="31">
+        <v>129361</v>
+      </c>
+      <c r="E24" s="31">
+        <v>1467024</v>
+      </c>
+      <c r="F24" s="31">
+        <v>-80986</v>
+      </c>
+      <c r="G24" s="31">
+        <v>1700755</v>
+      </c>
+      <c r="H24" s="31">
+        <v>9294530</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="31">
+        <v>2570417</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="31">
+        <v>126650</v>
+      </c>
+      <c r="H28" s="31">
+        <v>2697067</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="31">
+        <v>2684319</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="31">
+        <v>130541</v>
+      </c>
+      <c r="H29" s="31">
+        <v>2814860</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="31">
+        <v>333423</v>
+      </c>
+      <c r="C30" s="31">
+        <v>1424676</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="31">
+        <v>383356</v>
+      </c>
+      <c r="H30" s="31">
+        <v>2141455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="31">
+        <v>299175</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="31">
+        <v>299175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="31">
+        <v>336592</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="31">
+        <v>140808</v>
+      </c>
+      <c r="H32" s="31">
+        <v>477400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="31">
+        <v>22168</v>
+      </c>
+      <c r="C33" s="31">
+        <v>161367</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="31">
+        <v>869925</v>
+      </c>
+      <c r="G33" s="31">
+        <v>48889</v>
+      </c>
+      <c r="H33" s="31">
+        <v>1102349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="31">
+        <v>6246094</v>
+      </c>
+      <c r="C34" s="31">
+        <v>1586043</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="31">
+        <v>869925</v>
+      </c>
+      <c r="G34" s="31">
+        <v>830244</v>
+      </c>
+      <c r="H34" s="31">
+        <v>9532306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="31">
+        <v>-1348217</v>
+      </c>
+      <c r="C36" s="31">
+        <v>-405544</v>
+      </c>
+      <c r="D36" s="31">
+        <v>129361</v>
+      </c>
+      <c r="E36" s="31">
+        <v>1467024</v>
+      </c>
+      <c r="F36" s="31">
+        <v>-950911</v>
+      </c>
+      <c r="G36" s="31">
+        <v>870511</v>
+      </c>
+      <c r="H36" s="31">
+        <v>-237776</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="25" t="s">
+      <c r="B38" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="31">
+        <v>58091</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="31">
+        <v>58091</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="31">
+        <v>1597681</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="31">
+        <v>1632609</v>
+      </c>
+      <c r="G39" s="31">
+        <v>21214</v>
+      </c>
+      <c r="H39" s="31">
+        <v>3251504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25" t="s">
+      <c r="B40" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="31">
+        <v>-41809</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="31">
+        <v>-1467024</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="31">
+        <v>-1742671</v>
+      </c>
+      <c r="H40" s="31">
+        <v>-3251504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27" t="s">
+      <c r="B41" s="31">
+        <v>1597681</v>
+      </c>
+      <c r="C41" s="31">
+        <v>-41809</v>
+      </c>
+      <c r="D41" s="31">
+        <v>58091</v>
+      </c>
+      <c r="E41" s="31">
+        <v>-1467024</v>
+      </c>
+      <c r="F41" s="31">
+        <v>1632609</v>
+      </c>
+      <c r="G41" s="31">
+        <v>-1721457</v>
+      </c>
+      <c r="H41" s="31">
+        <v>58091</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27" t="s">
+      <c r="B42" s="31">
+        <v>249464</v>
+      </c>
+      <c r="C42" s="31">
+        <v>-447353</v>
+      </c>
+      <c r="D42" s="31">
+        <v>187452</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="31">
+        <v>681698</v>
+      </c>
+      <c r="G43" s="31">
+        <v>-850946</v>
+      </c>
+      <c r="H43" s="31">
+        <v>-179685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="B44" s="31">
+        <v>6163893</v>
+      </c>
+      <c r="C44" s="31">
+        <v>1085886</v>
+      </c>
+      <c r="D44" s="31">
+        <v>5430243</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="31">
+        <v>1924746</v>
+      </c>
+      <c r="G44" s="31">
+        <v>2747824</v>
+      </c>
+      <c r="H44" s="31">
+        <v>17352592</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="31">
-        <v>2846766</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="B45" s="30">
+        <v>6413357</v>
+      </c>
+      <c r="C45" s="30">
+        <v>638533</v>
+      </c>
+      <c r="D45" s="30">
+        <v>5617695</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="31">
-        <v>2846766</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="32">
-        <v>111400</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="32">
-        <v>111400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="32">
-        <v>1204882</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="32">
-        <v>442230</v>
-      </c>
-      <c r="H12" s="32">
-        <v>1647112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="32">
-        <v>563908</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="32">
-        <v>563908</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="32">
-        <v>162881</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="32">
-        <v>162881</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="32">
-        <v>114026</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="32">
-        <v>140326</v>
-      </c>
-      <c r="H15" s="32">
-        <v>254352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="32">
-        <v>151409</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="32">
-        <v>151409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="32">
-        <v>135233</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="32">
-        <v>1467024</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="32">
-        <v>1170041</v>
-      </c>
-      <c r="H17" s="32">
-        <v>2772298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="32">
-        <v>174443</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="32">
-        <v>174443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="32">
-        <v>587740</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="32">
-        <v>587740</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="32">
-        <v>305645</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="32">
-        <v>305645</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="32">
-        <v>-185018</v>
-      </c>
-      <c r="C22" s="32">
-        <v>-24383</v>
-      </c>
-      <c r="D22" s="32">
-        <v>17961</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="32">
-        <v>-80986</v>
-      </c>
-      <c r="G22" s="32">
-        <v>-52490</v>
-      </c>
-      <c r="H22" s="32">
-        <v>-324916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="32">
-        <v>40844</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="33">
-        <v>648</v>
-      </c>
-      <c r="H23" s="32">
-        <v>41492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="32">
-        <v>4897877</v>
-      </c>
-      <c r="C24" s="32">
-        <v>1180499</v>
-      </c>
-      <c r="D24" s="32">
-        <v>129361</v>
-      </c>
-      <c r="E24" s="32">
-        <v>1467024</v>
-      </c>
-      <c r="F24" s="32">
-        <v>-80986</v>
-      </c>
-      <c r="G24" s="32">
-        <v>1700755</v>
-      </c>
-      <c r="H24" s="32">
-        <v>9294530</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="32">
-        <v>2570417</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="32">
-        <v>126650</v>
-      </c>
-      <c r="H28" s="32">
-        <v>2697067</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="32">
-        <v>2684319</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="32">
-        <v>130541</v>
-      </c>
-      <c r="H29" s="32">
-        <v>2814860</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="32">
-        <v>333423</v>
-      </c>
-      <c r="C30" s="32">
-        <v>1424676</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="32">
-        <v>383356</v>
-      </c>
-      <c r="H30" s="32">
-        <v>2141455</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="32">
-        <v>299175</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="32">
-        <v>299175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="32">
-        <v>336592</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="32">
-        <v>140808</v>
-      </c>
-      <c r="H32" s="32">
-        <v>477400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="32">
-        <v>22168</v>
-      </c>
-      <c r="C33" s="32">
-        <v>161367</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="32">
-        <v>869925</v>
-      </c>
-      <c r="G33" s="32">
-        <v>48889</v>
-      </c>
-      <c r="H33" s="32">
-        <v>1102349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="32">
-        <v>6246094</v>
-      </c>
-      <c r="C34" s="32">
-        <v>1586043</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="32">
-        <v>869925</v>
-      </c>
-      <c r="G34" s="32">
-        <v>830244</v>
-      </c>
-      <c r="H34" s="32">
-        <v>9532306</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="32">
-        <v>-1348217</v>
-      </c>
-      <c r="C36" s="32">
-        <v>-405544</v>
-      </c>
-      <c r="D36" s="32">
-        <v>129361</v>
-      </c>
-      <c r="E36" s="32">
-        <v>1467024</v>
-      </c>
-      <c r="F36" s="32">
-        <v>-950911</v>
-      </c>
-      <c r="G36" s="32">
-        <v>870511</v>
-      </c>
-      <c r="H36" s="32">
-        <v>-237776</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="32">
-        <v>58091</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="32">
-        <v>58091</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="32">
-        <v>1597681</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="32">
-        <v>1632609</v>
-      </c>
-      <c r="G39" s="32">
-        <v>21214</v>
-      </c>
-      <c r="H39" s="32">
-        <v>3251504</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="32">
-        <v>-41809</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="32">
-        <v>-1467024</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="32">
-        <v>-1742671</v>
-      </c>
-      <c r="H40" s="32">
-        <v>-3251504</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="32">
-        <v>1597681</v>
-      </c>
-      <c r="C41" s="32">
-        <v>-41809</v>
-      </c>
-      <c r="D41" s="32">
-        <v>58091</v>
-      </c>
-      <c r="E41" s="32">
-        <v>-1467024</v>
-      </c>
-      <c r="F41" s="32">
-        <v>1632609</v>
-      </c>
-      <c r="G41" s="32">
-        <v>-1721457</v>
-      </c>
-      <c r="H41" s="32">
-        <v>58091</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="32">
-        <v>249464</v>
-      </c>
-      <c r="C42" s="32">
-        <v>-447353</v>
-      </c>
-      <c r="D42" s="32">
-        <v>187452</v>
-      </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="32">
-        <v>681698</v>
-      </c>
-      <c r="G43" s="32">
-        <v>-850946</v>
-      </c>
-      <c r="H43" s="32">
-        <v>-179685</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="32">
-        <v>6163893</v>
-      </c>
-      <c r="C44" s="32">
-        <v>1085886</v>
-      </c>
-      <c r="D44" s="32">
-        <v>5430243</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="32">
-        <v>1924746</v>
-      </c>
-      <c r="G44" s="32">
-        <v>2747824</v>
-      </c>
-      <c r="H44" s="32">
-        <v>17352592</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="31">
-        <v>6413357</v>
-      </c>
-      <c r="C45" s="31">
-        <v>638533</v>
-      </c>
-      <c r="D45" s="31">
-        <v>5617695</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="31">
+      <c r="F45" s="30">
         <v>2606444</v>
       </c>
-      <c r="G45" s="31">
+      <c r="G45" s="30">
         <v>1896878</v>
       </c>
-      <c r="H45" s="31">
+      <c r="H45" s="30">
         <v>17172907</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
+      <c r="B48" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CA_Clayton_2022.xlsx
+++ b/CA_Clayton_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xlsx2ixbrl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Process-XBRL-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7071900-76B0-48B3-BDC5-CF70D3D0F658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5D1235-6E54-4F91-875D-8277F08E6A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15180" windowHeight="12840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="2175" windowWidth="21015" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement of Net Position" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="234">
   <si>
     <t>City of Clayton</t>
   </si>
@@ -508,9 +508,6 @@
     <t>acfr:Assets</t>
   </si>
   <si>
-    <t>acfr:Compensatedabsencespayablenoncurrent</t>
-  </si>
-  <si>
     <t>acfr:CurrentLiabilities</t>
   </si>
   <si>
@@ -556,9 +553,6 @@
     <t>acfr:DeferredInflowsOfResourcesPension</t>
   </si>
   <si>
-    <t>acfr:DeferredInflowsOfResourcesOPEBItems</t>
-  </si>
-  <si>
     <t>acfr:NetPensionLiability</t>
   </si>
   <si>
@@ -731,6 +725,18 @@
   </si>
   <si>
     <t>acfr:InvestmentGainsLossesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>acfr:CompensatedAbsencesPayableNonCurrent</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromSpecialAssessmentsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>acfr:NetChangeInFundBalance</t>
+  </si>
+  <si>
+    <t>acfr:DeferredInflowsOfResourcesOPEB</t>
   </si>
 </sst>
 </file>
@@ -892,7 +898,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -902,6 +907,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1227,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
+      <c r="A1" s="32"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1236,7 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1239,7 +1245,7 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1254,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1257,7 +1263,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>144</v>
       </c>
       <c r="B5" s="3"/>
@@ -1272,7 +1278,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1281,7 +1287,7 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1290,7 +1296,7 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>145</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1307,7 +1313,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>146</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1324,7 +1330,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>147</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1341,7 +1347,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1358,7 +1364,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1375,7 +1381,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>150</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1392,7 +1398,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1401,7 +1407,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>153</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1418,7 +1424,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>151</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1435,7 +1441,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>152</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1452,7 +1458,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>154</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1469,7 +1475,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>155</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1486,7 +1492,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>156</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1503,14 +1509,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1519,8 +1525,8 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>167</v>
+      <c r="A23" s="33" t="s">
+        <v>166</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>27</v>
@@ -1536,8 +1542,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>168</v>
+      <c r="A24" s="33" t="s">
+        <v>167</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -1553,8 +1559,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>166</v>
+      <c r="A25" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>33</v>
@@ -1570,14 +1576,14 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="3"/>
       <c r="C26" s="11"/>
       <c r="D26" s="8"/>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="3" t="s">
         <v>35</v>
       </c>
@@ -1586,7 +1592,7 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
@@ -1595,8 +1601,8 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>169</v>
+      <c r="A29" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>37</v>
@@ -1612,8 +1618,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>170</v>
+      <c r="A30" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>38</v>
@@ -1629,8 +1635,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>177</v>
+      <c r="A31" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>40</v>
@@ -1646,8 +1652,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
-        <v>171</v>
+      <c r="A32" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>42</v>
@@ -1663,8 +1669,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
-        <v>176</v>
+      <c r="A33" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>78</v>
@@ -1680,8 +1686,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>178</v>
+      <c r="A34" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>45</v>
@@ -1697,8 +1703,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
-        <v>158</v>
+      <c r="A35" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>47</v>
@@ -1714,7 +1720,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
@@ -1723,8 +1729,8 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>157</v>
+      <c r="A37" s="33" t="s">
+        <v>230</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>77</v>
@@ -1740,8 +1746,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
-        <v>175</v>
+      <c r="A38" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>50</v>
@@ -1757,8 +1763,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
-        <v>174</v>
+      <c r="A39" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -1774,8 +1780,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>179</v>
+      <c r="A40" s="33" t="s">
+        <v>177</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -1791,8 +1797,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
-        <v>159</v>
+      <c r="A41" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>56</v>
@@ -1808,8 +1814,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="34" t="s">
-        <v>160</v>
+      <c r="A42" s="33" t="s">
+        <v>159</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>58</v>
@@ -1825,14 +1831,14 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="3"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="3" t="s">
         <v>59</v>
       </c>
@@ -1841,8 +1847,8 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
-        <v>172</v>
+      <c r="A45" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>60</v>
@@ -1858,8 +1864,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
-        <v>173</v>
+      <c r="A46" s="33" t="s">
+        <v>233</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>62</v>
@@ -1875,8 +1881,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
-        <v>165</v>
+      <c r="A47" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>66</v>
@@ -1892,14 +1898,14 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="3" t="s">
         <v>68</v>
       </c>
@@ -1908,8 +1914,8 @@
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
-        <v>164</v>
+      <c r="A50" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>69</v>
@@ -1925,8 +1931,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
-        <v>163</v>
+      <c r="A51" s="33" t="s">
+        <v>162</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>70</v>
@@ -1942,8 +1948,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
-        <v>162</v>
+      <c r="A52" s="33" t="s">
+        <v>161</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>72</v>
@@ -1959,8 +1965,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
-        <v>161</v>
+      <c r="A53" s="33" t="s">
+        <v>160</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>73</v>
@@ -1976,20 +1982,20 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="3"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
-      <c r="B55" s="29" t="s">
+      <c r="A55" s="32"/>
+      <c r="B55" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
@@ -2029,34 +2035,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="31" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="31" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="32"/>
       <c r="D5" s="24"/>
       <c r="E5" s="23" t="s">
         <v>100</v>
@@ -2067,25 +2073,25 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>144</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>143</v>
       </c>
       <c r="I6" s="21" t="s">
@@ -2093,14 +2099,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>181</v>
+      <c r="A8" s="33" t="s">
+        <v>179</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>7</v>
@@ -2128,8 +2134,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>180</v>
+      <c r="A9" s="33" t="s">
+        <v>178</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>97</v>
@@ -2155,8 +2161,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>182</v>
+      <c r="A10" s="33" t="s">
+        <v>180</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>11</v>
@@ -2182,8 +2188,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>183</v>
+      <c r="A11" s="33" t="s">
+        <v>181</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>19</v>
@@ -2209,8 +2215,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>184</v>
+      <c r="A12" s="33" t="s">
+        <v>182</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>21</v>
@@ -2236,8 +2242,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>185</v>
+      <c r="A13" s="33" t="s">
+        <v>183</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>96</v>
@@ -2263,8 +2269,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>186</v>
+      <c r="A14" s="33" t="s">
+        <v>184</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>95</v>
@@ -2290,8 +2296,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>187</v>
+      <c r="A15" s="33" t="s">
+        <v>185</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>94</v>
@@ -2313,8 +2319,8 @@
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>188</v>
+      <c r="A16" s="33" t="s">
+        <v>186</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>25</v>
@@ -2342,7 +2348,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="19"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -2353,7 +2359,7 @@
       <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="19" t="s">
         <v>93</v>
       </c>
@@ -2368,7 +2374,7 @@
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="19" t="s">
         <v>92</v>
       </c>
@@ -2383,7 +2389,7 @@
       <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="19" t="s">
         <v>91</v>
       </c>
@@ -2398,8 +2404,8 @@
       <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>189</v>
+      <c r="A21" s="33" t="s">
+        <v>187</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>37</v>
@@ -2427,8 +2433,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>194</v>
+      <c r="A22" s="33" t="s">
+        <v>192</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>90</v>
@@ -2456,8 +2462,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>190</v>
+      <c r="A23" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>40</v>
@@ -2485,8 +2491,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>191</v>
+      <c r="A24" s="33" t="s">
+        <v>189</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>89</v>
@@ -2514,8 +2520,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>193</v>
+      <c r="A25" s="33" t="s">
+        <v>191</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>42</v>
@@ -2543,8 +2549,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>192</v>
+      <c r="A26" s="33" t="s">
+        <v>190</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>58</v>
@@ -2572,7 +2578,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="19"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -2583,7 +2589,7 @@
       <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="19" t="s">
         <v>88</v>
       </c>
@@ -2598,8 +2604,8 @@
       <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>203</v>
+      <c r="A29" s="33" t="s">
+        <v>201</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>87</v>
@@ -2627,8 +2633,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>204</v>
+      <c r="A30" s="33" t="s">
+        <v>202</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>66</v>
@@ -2656,7 +2662,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="19"/>
       <c r="C31" s="27"/>
       <c r="D31" s="21"/>
@@ -2667,7 +2673,7 @@
       <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="19" t="s">
         <v>86</v>
       </c>
@@ -2682,8 +2688,8 @@
       <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
-        <v>200</v>
+      <c r="A33" s="33" t="s">
+        <v>198</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>85</v>
@@ -2711,8 +2717,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>201</v>
+      <c r="A34" s="33" t="s">
+        <v>199</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>84</v>
@@ -2738,8 +2744,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
-        <v>202</v>
+      <c r="A35" s="33" t="s">
+        <v>200</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>83</v>
@@ -2765,8 +2771,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
-        <v>198</v>
+      <c r="A36" s="33" t="s">
+        <v>196</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>82</v>
@@ -2792,8 +2798,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>199</v>
+      <c r="A37" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>81</v>
@@ -2819,8 +2825,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
-        <v>197</v>
+      <c r="A38" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>80</v>
@@ -2846,11 +2852,11 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>195</v>
+      <c r="A39" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>193</v>
       </c>
       <c r="C39" s="26">
         <v>6830902</v>
@@ -2873,7 +2879,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -2883,7 +2889,7 @@
       <c r="I40" s="20"/>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="19" t="s">
         <v>74</v>
       </c>
@@ -2898,7 +2904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D128B9-3C99-4CB8-94D6-1A47AE05AB64}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2914,35 +2922,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="31" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="31" t="s">
         <v>138</v>
       </c>
       <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="31" t="s">
         <v>137</v>
       </c>
       <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="23" t="s">
@@ -2957,26 +2965,26 @@
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>144</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>143</v>
       </c>
       <c r="I6" s="21" t="s">
@@ -2984,7 +2992,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="19" t="s">
         <v>136</v>
       </c>
@@ -2997,8 +3005,8 @@
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>205</v>
+      <c r="A8" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>135</v>
@@ -3026,8 +3034,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>218</v>
+      <c r="A9" s="33" t="s">
+        <v>216</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>134</v>
@@ -3055,9 +3063,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="str">
-        <f>"acfr:"&amp;SUBSTITUTE(B10," ","")</f>
-        <v>acfr:Specialparceltaxesandassessments</v>
+      <c r="A10" s="33" t="s">
+        <v>231</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>133</v>
@@ -3085,8 +3092,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>207</v>
+      <c r="A11" s="33" t="s">
+        <v>205</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>132</v>
@@ -3114,8 +3121,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>209</v>
+      <c r="A12" s="33" t="s">
+        <v>207</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>131</v>
@@ -3143,8 +3150,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>208</v>
+      <c r="A13" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>130</v>
@@ -3172,8 +3179,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>211</v>
+      <c r="A14" s="33" t="s">
+        <v>209</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>129</v>
@@ -3201,8 +3208,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>216</v>
+      <c r="A15" s="33" t="s">
+        <v>214</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>128</v>
@@ -3230,8 +3237,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>206</v>
+      <c r="A16" s="33" t="s">
+        <v>204</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>127</v>
@@ -3251,8 +3258,8 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>215</v>
+      <c r="A17" s="33" t="s">
+        <v>213</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>126</v>
@@ -3280,8 +3287,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>214</v>
+      <c r="A18" s="33" t="s">
+        <v>212</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>125</v>
@@ -3309,8 +3316,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>213</v>
+      <c r="A19" s="33" t="s">
+        <v>211</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>124</v>
@@ -3338,8 +3345,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>212</v>
+      <c r="A20" s="33" t="s">
+        <v>210</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>123</v>
@@ -3367,8 +3374,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>217</v>
+      <c r="A21" s="33" t="s">
+        <v>215</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>122</v>
@@ -3396,8 +3403,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>210</v>
+      <c r="A22" s="33" t="s">
+        <v>208</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>121</v>
@@ -3425,7 +3432,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="19"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -3436,7 +3443,7 @@
       <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="19" t="s">
         <v>120</v>
       </c>
@@ -3449,7 +3456,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="19" t="s">
         <v>119</v>
       </c>
@@ -3462,8 +3469,8 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>219</v>
+      <c r="A26" s="33" t="s">
+        <v>217</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>118</v>
@@ -3491,8 +3498,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
-        <v>220</v>
+      <c r="A27" s="33" t="s">
+        <v>218</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>117</v>
@@ -3520,8 +3527,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
-        <v>221</v>
+      <c r="A28" s="33" t="s">
+        <v>219</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>116</v>
@@ -3549,8 +3556,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>222</v>
+      <c r="A29" s="33" t="s">
+        <v>220</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>115</v>
@@ -3578,8 +3585,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>223</v>
+      <c r="A30" s="33" t="s">
+        <v>221</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>114</v>
@@ -3607,8 +3614,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>225</v>
+      <c r="A31" s="33" t="s">
+        <v>223</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>113</v>
@@ -3636,8 +3643,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
-        <v>224</v>
+      <c r="A32" s="33" t="s">
+        <v>222</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>112</v>
@@ -3665,11 +3672,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>226</v>
+      <c r="A33" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>224</v>
       </c>
       <c r="C33" s="27">
         <v>-1348217</v>
@@ -3694,7 +3701,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="19" t="s">
         <v>111</v>
       </c>
@@ -3707,8 +3714,8 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
-        <v>231</v>
+      <c r="A35" s="33" t="s">
+        <v>229</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>110</v>
@@ -3736,8 +3743,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
-        <v>228</v>
+      <c r="A36" s="33" t="s">
+        <v>226</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>109</v>
@@ -3765,8 +3772,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>229</v>
+      <c r="A37" s="33" t="s">
+        <v>227</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>108</v>
@@ -3794,8 +3801,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
-        <v>230</v>
+      <c r="A38" s="33" t="s">
+        <v>228</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>107</v>
@@ -3823,9 +3830,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="str">
-        <f>"acfr:"&amp;SUBSTITUTE(B39," ","")</f>
-        <v>acfr:NetChangeinFundBalances</v>
+      <c r="A39" s="33" t="s">
+        <v>232</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>106</v>
@@ -3845,7 +3851,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="19" t="s">
         <v>105</v>
       </c>
@@ -3866,8 +3872,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
-        <v>197</v>
+      <c r="A41" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>104</v>
@@ -3895,8 +3901,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="34" t="s">
-        <v>197</v>
+      <c r="A42" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>103</v>

--- a/CA_Clayton_2022.xlsx
+++ b/CA_Clayton_2022.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Process-XBRL-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Update0803\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5D1235-6E54-4F91-875D-8277F08E6A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B9DF5CA-0766-405D-97A9-C1F13A887FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="2175" windowWidth="21015" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="20715" windowHeight="11295" tabRatio="834" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement of Net Position" sheetId="1" r:id="rId1"/>
     <sheet name="GovFund Balance Sheet" sheetId="2" r:id="rId2"/>
     <sheet name="GovFund Stmt of Rev Exp and Chg" sheetId="3" r:id="rId3"/>
+    <sheet name="Prop Fund Stmt of Net Position" sheetId="4" r:id="rId4"/>
+    <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="5" r:id="rId5"/>
+    <sheet name="Statement of Cash Flows" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="324">
   <si>
     <t>City of Clayton</t>
   </si>
@@ -737,6 +740,276 @@
   </si>
   <si>
     <t>acfr:DeferredInflowsOfResourcesOPEB</t>
+  </si>
+  <si>
+    <t>Due to other funds</t>
+  </si>
+  <si>
+    <t>acfr:DueToOthers</t>
+  </si>
+  <si>
+    <t>Current liabilities:</t>
+  </si>
+  <si>
+    <t>Depreciable assets, net</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>acfr:Land</t>
+  </si>
+  <si>
+    <t>Noncurrent assets</t>
+  </si>
+  <si>
+    <t>Current assets:</t>
+  </si>
+  <si>
+    <t>Governmental Activities - Internal Service Funds</t>
+  </si>
+  <si>
+    <t>Business-type Activities - Endeavor Hall</t>
+  </si>
+  <si>
+    <t>Proprietary Funds</t>
+  </si>
+  <si>
+    <t>Beginning of fiscal year</t>
+  </si>
+  <si>
+    <t>acfr:NetPositionAtBeginningOfPeriodAfterAdjustments</t>
+  </si>
+  <si>
+    <t>NET POSITION:</t>
+  </si>
+  <si>
+    <t>Change in Net Position</t>
+  </si>
+  <si>
+    <t>acfr:ChangesInNetPosition</t>
+  </si>
+  <si>
+    <t>Transfers in / (out)</t>
+  </si>
+  <si>
+    <t>acfr:TransfersNet</t>
+  </si>
+  <si>
+    <t>Capital contributions</t>
+  </si>
+  <si>
+    <t>acfr:ContributionsCapital</t>
+  </si>
+  <si>
+    <t>Net (loss) Before Contributions and Operating Transfers</t>
+  </si>
+  <si>
+    <t>acfr:IncomeLossBeforeCapitalContributions</t>
+  </si>
+  <si>
+    <t>Total Nonoperating Revenues (Expenses)</t>
+  </si>
+  <si>
+    <t>acfr:NonoperatingRevenuesAndExpenses</t>
+  </si>
+  <si>
+    <t>Investment income</t>
+  </si>
+  <si>
+    <t>acfr:InvestmentIncome</t>
+  </si>
+  <si>
+    <t>Gain (loss) on disposal of assets</t>
+  </si>
+  <si>
+    <t>acfr:GainLossOnSaleOfCapitalAssets</t>
+  </si>
+  <si>
+    <t>NONOPERATING REVENUES (EXPENSES)</t>
+  </si>
+  <si>
+    <t>Operating Income (Loss)</t>
+  </si>
+  <si>
+    <t>acfr:OperatingIncomeLoss</t>
+  </si>
+  <si>
+    <t>Total Operating Expenses</t>
+  </si>
+  <si>
+    <t>acfr:OperatingExpense</t>
+  </si>
+  <si>
+    <t>Depreciation and amortization</t>
+  </si>
+  <si>
+    <t>acfr:DepreciationExpense</t>
+  </si>
+  <si>
+    <t>General and administrative</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGeneralGovernmentServices</t>
+  </si>
+  <si>
+    <t>Personnel</t>
+  </si>
+  <si>
+    <t>acfr:AllOtherPersonnel</t>
+  </si>
+  <si>
+    <t>OPERATING EXPENSES</t>
+  </si>
+  <si>
+    <t>Total Operating Revenues</t>
+  </si>
+  <si>
+    <t>acfr:OperatingRevenueCustom</t>
+  </si>
+  <si>
+    <t>Charges for current services</t>
+  </si>
+  <si>
+    <t>acfr:ChargesForServices</t>
+  </si>
+  <si>
+    <t>OPERATING REVENUES</t>
+  </si>
+  <si>
+    <t>Statement of Revenues, Expenses and Changes in Net Position</t>
+  </si>
+  <si>
+    <t>Net cash provided (used) by operating activities</t>
+  </si>
+  <si>
+    <t>acfr:NetCashProvidedByUsedInOperatingActivities</t>
+  </si>
+  <si>
+    <t>Increase (decrease) in interfund payables</t>
+  </si>
+  <si>
+    <t>acfr:IncreaseDecreaseInDueFromOtherFunds</t>
+  </si>
+  <si>
+    <t>Increase (decrease) in deposits payable</t>
+  </si>
+  <si>
+    <t>acfr:IncreaseDecreaseInDeposits</t>
+  </si>
+  <si>
+    <t>Increase (decrease) in accounts payable</t>
+  </si>
+  <si>
+    <t>acfr:IncreaseDecreaseInAccountsPayable</t>
+  </si>
+  <si>
+    <t>Changes in current assets and liabilities:</t>
+  </si>
+  <si>
+    <t>to net cash provided (used) by operating activities:</t>
+  </si>
+  <si>
+    <t>Adjustments to reconcile operating income (loss)</t>
+  </si>
+  <si>
+    <t>Operating income (loss)</t>
+  </si>
+  <si>
+    <t>OPERATING ACTIVITIES:</t>
+  </si>
+  <si>
+    <t>(LOSS) TO NET CASH PROVIDED (USED) BY</t>
+  </si>
+  <si>
+    <t>RECONCILIATION OF OPERATING INCOME</t>
+  </si>
+  <si>
+    <t>acfr:CashAndCashEquivalentsPerCashFlows</t>
+  </si>
+  <si>
+    <t>CASH AND CASH EQUIVALENTS:</t>
+  </si>
+  <si>
+    <t>Net increase (decrease) in cash and cash equivalents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	acfr:CashAndCashEquivalentsPeriodIncreaseDecrease</t>
+  </si>
+  <si>
+    <t>Net Cash provided by investing activities</t>
+  </si>
+  <si>
+    <t>acfr:NetCashProvidedByUsedInInvestingActivities</t>
+  </si>
+  <si>
+    <t>Interest received on investments</t>
+  </si>
+  <si>
+    <t>acfr:ProceedsFromInterestOnInvestments</t>
+  </si>
+  <si>
+    <t>CASH FLOWS FROM INVESTING ACTIVITIES:</t>
+  </si>
+  <si>
+    <t>Net cash provided (used) by capital and related financing activities</t>
+  </si>
+  <si>
+    <t>acfr:NetCashProvidedByUsedInCapitalAndRelatedFinancingActivities</t>
+  </si>
+  <si>
+    <t>Proceeds from the sale of capital assets</t>
+  </si>
+  <si>
+    <t>acfr:ProceedsFromSalesOfCapitalAssets</t>
+  </si>
+  <si>
+    <t>Acquisition of fixed assets</t>
+  </si>
+  <si>
+    <t>acfr:PaymentsToPurchaseCapitalAssets</t>
+  </si>
+  <si>
+    <t>CASH FLOWS FROM CAPITAL AND RELATED FINANCING ACTIVITIES:</t>
+  </si>
+  <si>
+    <t>Net cash provided by noncapital financing activities</t>
+  </si>
+  <si>
+    <t>acfr:NetCashProvidedByUsedInNonCapitalFinancingActivities</t>
+  </si>
+  <si>
+    <t>CASH FLOWS FROM NONCAPITAL FINANCING ACTIVITIES:</t>
+  </si>
+  <si>
+    <t>Claims paid</t>
+  </si>
+  <si>
+    <t>acfr:CashPaidForClaimsPaid</t>
+  </si>
+  <si>
+    <t>Payments to employees</t>
+  </si>
+  <si>
+    <t>acfr:PaymentsToEmployees</t>
+  </si>
+  <si>
+    <t>Payments to suppliers</t>
+  </si>
+  <si>
+    <t>acfr:PaymentsToSuppliers</t>
+  </si>
+  <si>
+    <t>Receipts from customers</t>
+  </si>
+  <si>
+    <t>acfr:ProceedsFromSalesAndServices</t>
+  </si>
+  <si>
+    <t>CASH FLOWS FROM OPERATING ACTIVITIES:</t>
+  </si>
+  <si>
+    <t>Statement of Cash Flows</t>
   </si>
 </sst>
 </file>
@@ -746,7 +1019,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-809]#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -794,6 +1067,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -852,7 +1132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -908,6 +1188,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1215,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -2904,7 +3194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D128B9-3C99-4CB8-94D6-1A47AE05AB64}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -3948,4 +4238,1062 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1472389-47EF-405E-8CCC-659CBF543E59}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.7109375" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="26">
+        <v>460441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="27">
+        <v>167738</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="27">
+        <v>841465</v>
+      </c>
+      <c r="D11" s="27">
+        <v>540610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="27">
+        <v>1009203</v>
+      </c>
+      <c r="D12" s="27">
+        <v>1001051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="27">
+        <v>2671</v>
+      </c>
+      <c r="D15" s="28">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="27">
+        <v>5500</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="27">
+        <v>120893</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="27">
+        <v>129064</v>
+      </c>
+      <c r="D19" s="28">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="27">
+        <v>1009203</v>
+      </c>
+      <c r="D21" s="27">
+        <v>540610</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="27">
+        <v>-129064</v>
+      </c>
+      <c r="D22" s="27">
+        <v>460126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="26">
+        <v>880139</v>
+      </c>
+      <c r="D23" s="26">
+        <v>1000736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561EF3A4-62DC-4CA7-A3A2-3DAB05769638}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="26">
+        <v>16847</v>
+      </c>
+      <c r="D7" s="26">
+        <v>111900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="27">
+        <v>16847</v>
+      </c>
+      <c r="D8" s="27">
+        <v>111900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="27">
+        <v>4833</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="27">
+        <v>26989</v>
+      </c>
+      <c r="D11" s="27">
+        <v>8564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="27">
+        <v>28872</v>
+      </c>
+      <c r="D12" s="27">
+        <v>100425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="27">
+        <v>60694</v>
+      </c>
+      <c r="D13" s="27">
+        <v>108989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="27">
+        <v>-43847</v>
+      </c>
+      <c r="D14" s="27">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="27">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="27">
+        <v>-14675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="27">
+        <v>-7717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="38">
+        <v>-43847</v>
+      </c>
+      <c r="D19" s="38">
+        <v>-4806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="27">
+        <v>-43847</v>
+      </c>
+      <c r="D22" s="27">
+        <v>-4806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="27">
+        <v>923986</v>
+      </c>
+      <c r="D24" s="27">
+        <v>1005542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="26">
+        <v>880139</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1000736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F974A34E-AF89-4E55-8474-086D4B24BD38}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="14" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="19"/>
+    <col min="8" max="8" width="21.42578125" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="26">
+        <v>20847</v>
+      </c>
+      <c r="D7" s="26">
+        <v>111900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="27">
+        <v>-24734</v>
+      </c>
+      <c r="D8" s="27">
+        <v>-4001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" s="27">
+        <v>-4833</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="27">
+        <v>-4428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="27">
+        <v>-8720</v>
+      </c>
+      <c r="D11" s="27">
+        <v>103471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="27">
+        <v>8720</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="27">
+        <v>8720</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="27">
+        <v>-153184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="27">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="27">
+        <v>-146226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="27">
+        <v>-14675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="27">
+        <v>-14675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="27">
+        <v>-57430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="27">
+        <v>517871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="26">
+        <v>460441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" s="26">
+        <v>-43847</v>
+      </c>
+      <c r="D29" s="26">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C32" s="27">
+        <v>28872</v>
+      </c>
+      <c r="D32" s="27">
+        <v>100425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C34" s="27">
+        <v>2255</v>
+      </c>
+      <c r="D34" s="28">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C35" s="27">
+        <v>4000</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" s="26">
+        <v>-8720</v>
+      </c>
+      <c r="D37" s="26">
+        <v>103471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="36"/>
+      <c r="B39" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CA_Clayton_2022.xlsx
+++ b/CA_Clayton_2022.xlsx
@@ -921,9 +921,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="[$$-809]#,##0"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -985,13 +985,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1004,9 +997,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1018,8 +1032,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,7 +1042,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,53 +1073,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1111,8 +1087,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,7 +1127,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1148,19 +1148,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,31 +1196,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,55 +1214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,13 +1238,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,7 +1268,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,37 +1316,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,8 +1369,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1378,8 +1393,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1395,6 +1410,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1424,191 +1463,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5386,8 +5386,8 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>

--- a/CA_Clayton_2022.xlsx
+++ b/CA_Clayton_2022.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="834" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="834" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Statement of Net Position" sheetId="1" r:id="rId1"/>
-    <sheet name="GovFund Stmt of Rev Exp and Chg" sheetId="3" r:id="rId2"/>
-    <sheet name="GovFund Balance Sheet" sheetId="2" r:id="rId3"/>
-    <sheet name="Prop Fund Stmt of Net Position" sheetId="4" r:id="rId4"/>
-    <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="5" r:id="rId5"/>
-    <sheet name="Statement of Cash Flows" sheetId="6" r:id="rId6"/>
+    <sheet name="Statement of Activities" sheetId="7" r:id="rId2"/>
+    <sheet name="GovFund Stmt of Rev Exp and Chg" sheetId="3" r:id="rId3"/>
+    <sheet name="GovFund Balance Sheet" sheetId="2" r:id="rId4"/>
+    <sheet name="Prop Fund Stmt of Net Position" sheetId="4" r:id="rId5"/>
+    <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="5" r:id="rId6"/>
+    <sheet name="Statement of Cash Flows" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="366">
   <si>
     <t>City of Clayton</t>
   </si>
@@ -291,15 +292,255 @@
     <t>The accompanying notes are an integral part of the financial statements</t>
   </si>
   <si>
+    <t>Statement of Activities</t>
+  </si>
+  <si>
+    <t>For the year ended June 30, 2022</t>
+  </si>
+  <si>
+    <t>D20220630_GovernmentalActivities</t>
+  </si>
+  <si>
+    <t>D20220630_BusinessTypeActivities</t>
+  </si>
+  <si>
+    <t>D20220630</t>
+  </si>
+  <si>
+    <t>XBRL_Element</t>
+  </si>
+  <si>
+    <t>Functions/Programs</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>XBRL_Elment</t>
+  </si>
+  <si>
+    <t>Charges for Services</t>
+  </si>
+  <si>
+    <t>Operating Grants and Contributions</t>
+  </si>
+  <si>
+    <t>Capital Grants and Contributions</t>
+  </si>
+  <si>
+    <t>Business-type Activities</t>
+  </si>
+  <si>
+    <t>Primary Government:</t>
+  </si>
+  <si>
+    <t>D20220630_GovernmentalActivities_ChargesForServices</t>
+  </si>
+  <si>
+    <t>D20220630_GovernmentalActivities_OperatingGrants</t>
+  </si>
+  <si>
+    <t>D20220630_GovernmentalActivities_CapitalGrants</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGeneralGovernmentServices</t>
+  </si>
+  <si>
+    <t>General government</t>
+  </si>
+  <si>
+    <t>acfr:RevenueForGeneralGovernment</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueGeneralGovernmentServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicSafetyServices</t>
+  </si>
+  <si>
+    <t>Public safety</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForPublicSafetyServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicWorksServices</t>
+  </si>
+  <si>
+    <t>Public works</t>
+  </si>
+  <si>
+    <t>acfr:RevenueUsedForPublicWorksServices</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForPublicWorksServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCommunityAndEconomicDevelopmentServices</t>
+  </si>
+  <si>
+    <t>Community and economic development</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueCommunityAndEconomicDevelopmentServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForParksAndRecreation</t>
+  </si>
+  <si>
+    <t>Parks and recreation services</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenueForParksAndRecreation</t>
+  </si>
+  <si>
+    <t>acfr:Expenses</t>
+  </si>
+  <si>
+    <t>Total Governmental Activities</t>
+  </si>
+  <si>
+    <t>acfr:ProgramRevenues</t>
+  </si>
+  <si>
+    <t>acfr:NetExpenseRevenue</t>
+  </si>
+  <si>
+    <t>Business-Type Activities</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>D20220630_FundIdentifierDomain_EndeavorHall</t>
+  </si>
+  <si>
+    <t>D20220630_BusinessTypeActivities_EndeavorHall_ChargesForServices</t>
+  </si>
+  <si>
+    <t>D20220630_BusinessTypeActivities_EndeavorHall_OperatingGrants</t>
+  </si>
+  <si>
+    <t>D20220630_BusinessTypeActivities_EndeavorHall_CapitalGrants</t>
+  </si>
+  <si>
+    <t>Endeavor Hall</t>
+  </si>
+  <si>
+    <t>D20220630_BusinessTypeActivities_ChargesForServices</t>
+  </si>
+  <si>
+    <t>D20220630_BusinessTypeActivities_OperatingGrants</t>
+  </si>
+  <si>
+    <t>D20220630_BusinessTypeActivities_CapitalGrants</t>
+  </si>
+  <si>
+    <t>Total Business-Type Activities</t>
+  </si>
+  <si>
+    <t>D20220630_ChargesForServices</t>
+  </si>
+  <si>
+    <t>D20220630_OperatingGrants</t>
+  </si>
+  <si>
+    <t>D20220630_CapitalGrants</t>
+  </si>
+  <si>
+    <t>Total Primary Government</t>
+  </si>
+  <si>
+    <t>General revenues:</t>
+  </si>
+  <si>
+    <t>Taxes:</t>
+  </si>
+  <si>
+    <t>Property taxes</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromPropertyTax</t>
+  </si>
+  <si>
+    <t>Special parcel taxes</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromSpecialAssessments</t>
+  </si>
+  <si>
+    <t>Sales and use taxes</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromSalesAndUseTax</t>
+  </si>
+  <si>
+    <t>Business license taxes</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromBusinessLicenseTax</t>
+  </si>
+  <si>
+    <t>Total Taxes</t>
+  </si>
+  <si>
+    <t>Franchise fees</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromFranchiseIncomeTax</t>
+  </si>
+  <si>
+    <t>Payments in lieu of taxes</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromOtherTaxForGeneralPurpose</t>
+  </si>
+  <si>
+    <t>Investment income (loss)</t>
+  </si>
+  <si>
+    <t>acfr:InvestmentIncome</t>
+  </si>
+  <si>
+    <t>Other miscellaneous general revenues</t>
+  </si>
+  <si>
+    <t>acfr:OtherGeneralRevenues</t>
+  </si>
+  <si>
+    <t>Gain (loss) on disposal of fixed assets</t>
+  </si>
+  <si>
+    <t>acfr:GainLossOnSalesOfCapitalAssets</t>
+  </si>
+  <si>
+    <t>Total general revenues and transfers</t>
+  </si>
+  <si>
+    <t>acfr:GeneralRevenuesAndTransfers</t>
+  </si>
+  <si>
+    <t>Change in net position</t>
+  </si>
+  <si>
+    <t>acfr:ChangesInNetPosition</t>
+  </si>
+  <si>
+    <t>Net position - beginning, as restated</t>
+  </si>
+  <si>
+    <t>acfr:NetPositionAtBeginningOfPeriodAfterAdjustments</t>
+  </si>
+  <si>
+    <t>Net position - ending</t>
+  </si>
+  <si>
     <t>Governmental Funds</t>
   </si>
   <si>
     <t>Statement of Revenues, Expenditures and Changes in Fund Balance</t>
   </si>
   <si>
-    <t>For the year ended June 30, 2022</t>
-  </si>
-  <si>
     <t>Special Revenue</t>
   </si>
   <si>
@@ -330,9 +571,6 @@
     <t>acfr:RevenueFromPropertyTaxModifiedAccrual</t>
   </si>
   <si>
-    <t>Property taxes</t>
-  </si>
-  <si>
     <t>acfr:RevenueFromGrantsAndEntitlementsRestrictedForSpecificProgramsModifiedAccrual</t>
   </si>
   <si>
@@ -348,9 +586,6 @@
     <t>acfr:RevenueFromSalesAndUseTaxModifiedAccrual</t>
   </si>
   <si>
-    <t>Sales and use taxes</t>
-  </si>
-  <si>
     <t>acfr:RevenueFromBusinessLicensesAndPermitsModifiedAccrual</t>
   </si>
   <si>
@@ -390,9 +625,6 @@
     <t>acfr:RevenueFromCableFranchiseFeesModifiedAccrual</t>
   </si>
   <si>
-    <t>Franchise fees</t>
-  </si>
-  <si>
     <t>acfr:ChargesForServicesAllOtherFeesModifiedAccrual</t>
   </si>
   <si>
@@ -426,33 +658,18 @@
     <t>acfr:ExpendituresForGeneralGovernmentServicesModifiedAccrual</t>
   </si>
   <si>
-    <t>General government</t>
-  </si>
-  <si>
     <t>acfr:ExpendituresForPublicSafetyServicesModifiedAccrual</t>
   </si>
   <si>
-    <t>Public safety</t>
-  </si>
-  <si>
     <t>acfr:ExpendituresForPublicWorksServicesModifiedAccrual</t>
   </si>
   <si>
-    <t>Public works</t>
-  </si>
-  <si>
     <t>acfr:ExpendituresForCommunityAndEconomicDevelopmentServicesModifiedAccrual</t>
   </si>
   <si>
-    <t>Community and economic development</t>
-  </si>
-  <si>
     <t>acfr:ExpendituresForParksAndRecreationModifiedAccrual</t>
   </si>
   <si>
-    <t>Parks and recreation services</t>
-  </si>
-  <si>
     <t>acfr:ExpendituresForCapitalOutlayModifiedAccrual</t>
   </si>
   <si>
@@ -705,9 +922,6 @@
     <t>Personnel</t>
   </si>
   <si>
-    <t>acfr:ExpensesForGeneralGovernmentServices</t>
-  </si>
-  <si>
     <t>General and administrative</t>
   </si>
   <si>
@@ -738,9 +952,6 @@
     <t>Gain (loss) on disposal of assets</t>
   </si>
   <si>
-    <t>acfr:InvestmentIncome</t>
-  </si>
-  <si>
     <t>Investment income</t>
   </si>
   <si>
@@ -768,16 +979,10 @@
     <t>Transfers in / (out)</t>
   </si>
   <si>
-    <t>acfr:ChangesInNetPosition</t>
-  </si>
-  <si>
     <t>Change in Net Position</t>
   </si>
   <si>
     <t>NET POSITION:</t>
-  </si>
-  <si>
-    <t>acfr:NetPositionAtBeginningOfPeriodAfterAdjustments</t>
   </si>
   <si>
     <t>Beginning of fiscal year</t>
@@ -922,11 +1127,11 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="[$$-809]#,##0"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -954,6 +1159,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -963,6 +1173,39 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Book Antiqua Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Book Antiqua"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Book Antiqua Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1A1AA6"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Book Antiqua Italic"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -985,12 +1228,121 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,85 +1363,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1101,39 +1375,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1154,7 +1397,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,7 +1481,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,31 +1541,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,121 +1577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,11 +1615,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1386,30 +1665,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,30 +1686,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1463,156 +1694,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="32" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
@@ -1643,43 +1892,101 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="32" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="32" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="32" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="32" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="32"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="32" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="32" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="32" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="32" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="32" applyFont="1"/>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="32" applyFont="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1743,9 +2050,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1783,7 +2090,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1855,7 +2162,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2031,100 +2338,100 @@
   <sheetPr/>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="44.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="41.5714285714286" customWidth="1"/>
-    <col min="3" max="5" width="18.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="44.4571428571429" customWidth="1"/>
+    <col min="2" max="2" width="41.5428571428571" customWidth="1"/>
+    <col min="3" max="5" width="18.7238095238095" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:5">
       <c r="A1" s="17"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" ht="15.75" spans="1:5">
       <c r="A2" s="17"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="17"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="17"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
     </row>
     <row r="5" ht="30" spans="1:5">
       <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:5">
       <c r="A6" s="20"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" ht="15" spans="1:5">
       <c r="A7" s="20"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
     </row>
     <row r="8" ht="15" spans="1:5">
       <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="59">
         <v>13441679</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="59">
         <v>13441679</v>
       </c>
     </row>
@@ -2132,16 +2439,16 @@
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="60">
         <v>1133315</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="33">
+      <c r="D9" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="60">
         <v>1133315</v>
       </c>
     </row>
@@ -2149,16 +2456,16 @@
       <c r="A10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="60">
         <v>25257</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D10" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="60">
         <v>25257</v>
       </c>
     </row>
@@ -2166,16 +2473,16 @@
       <c r="A11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="60">
         <v>120893</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="60">
         <v>-120893</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="58" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2183,16 +2490,16 @@
       <c r="A12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="60">
         <v>52578</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="33">
+      <c r="D12" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="60">
         <v>52578</v>
       </c>
     </row>
@@ -2200,42 +2507,42 @@
       <c r="A13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="60">
         <v>14773722</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="60">
         <v>-120893</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="60">
         <v>14652829</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:5">
       <c r="A14" s="20"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
     </row>
     <row r="15" ht="15" spans="1:5">
       <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="60">
         <v>3170453</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="33">
+      <c r="D15" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="60">
         <v>3170453</v>
       </c>
     </row>
@@ -2243,16 +2550,16 @@
       <c r="A16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="60">
         <v>3311550</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="33">
+      <c r="D16" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="60">
         <v>3311550</v>
       </c>
     </row>
@@ -2260,16 +2567,16 @@
       <c r="A17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="60">
         <v>3133754</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="60">
         <v>167738</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="60">
         <v>3301492</v>
       </c>
     </row>
@@ -2277,16 +2584,16 @@
       <c r="A18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="60">
         <v>25982451</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="60">
         <v>841465</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="60">
         <v>26823916</v>
       </c>
     </row>
@@ -2294,16 +2601,16 @@
       <c r="A19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="60">
         <v>35598208</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="60">
         <v>1009203</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="60">
         <v>36607411</v>
       </c>
     </row>
@@ -2311,49 +2618,49 @@
       <c r="A20" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="61">
         <v>50371930</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="61">
         <v>888310</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="61">
         <v>51260240</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:5">
       <c r="A21" s="20"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
     </row>
     <row r="22" ht="15" spans="1:5">
       <c r="A22" s="20"/>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
     </row>
     <row r="23" ht="15" spans="1:5">
       <c r="A23" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="60">
         <v>1285641</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="33">
+      <c r="D23" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="60">
         <v>1285641</v>
       </c>
     </row>
@@ -2361,16 +2668,16 @@
       <c r="A24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="30" t="s">
+      <c r="C24" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="58" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2378,58 +2685,58 @@
       <c r="A25" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="61">
         <v>1285641</v>
       </c>
-      <c r="D25" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="34">
+      <c r="D25" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="61">
         <v>1285641</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:5">
       <c r="A26" s="20"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="33"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="60"/>
     </row>
     <row r="27" ht="15" spans="1:5">
       <c r="A27" s="20"/>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
     </row>
     <row r="28" ht="15" spans="1:5">
       <c r="A28" s="20"/>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
     </row>
     <row r="29" ht="15" spans="1:5">
       <c r="A29" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="60">
         <v>149907</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="60">
         <v>2671</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="60">
         <v>152578</v>
       </c>
     </row>
@@ -2437,16 +2744,16 @@
       <c r="A30" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="33">
+      <c r="C30" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="60">
         <v>5500</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="60">
         <v>5500</v>
       </c>
     </row>
@@ -2454,16 +2761,16 @@
       <c r="A31" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="63">
         <v>37</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="36">
+      <c r="D31" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="63">
         <v>37</v>
       </c>
     </row>
@@ -2471,16 +2778,16 @@
       <c r="A32" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="60">
         <v>332166</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="33">
+      <c r="D32" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="60">
         <v>332166</v>
       </c>
     </row>
@@ -2488,16 +2795,16 @@
       <c r="A33" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="60">
         <v>83645</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="33">
+      <c r="D33" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="60">
         <v>83645</v>
       </c>
     </row>
@@ -2505,16 +2812,16 @@
       <c r="A34" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="60">
         <v>74358</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="33">
+      <c r="D34" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="60">
         <v>74358</v>
       </c>
     </row>
@@ -2522,42 +2829,42 @@
       <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="60">
         <v>640113</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="60">
         <v>8171</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="60">
         <v>648284</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:5">
       <c r="A36" s="20"/>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
     </row>
     <row r="37" ht="15" spans="1:5">
       <c r="A37" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="60">
         <v>83645</v>
       </c>
-      <c r="D37" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="33">
+      <c r="D37" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="60">
         <v>83645</v>
       </c>
     </row>
@@ -2565,16 +2872,16 @@
       <c r="A38" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="60">
         <v>578315</v>
       </c>
-      <c r="D38" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="33">
+      <c r="D38" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="60">
         <v>578315</v>
       </c>
     </row>
@@ -2582,16 +2889,16 @@
       <c r="A39" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="60">
         <v>2759739</v>
       </c>
-      <c r="D39" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="33">
+      <c r="D39" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="60">
         <v>2759739</v>
       </c>
     </row>
@@ -2599,16 +2906,16 @@
       <c r="A40" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="60">
         <v>244640</v>
       </c>
-      <c r="D40" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="33">
+      <c r="D40" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="60">
         <v>244640</v>
       </c>
     </row>
@@ -2616,16 +2923,16 @@
       <c r="A41" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="60">
         <v>3666339</v>
       </c>
-      <c r="D41" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="33">
+      <c r="D41" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="60">
         <v>3666339</v>
       </c>
     </row>
@@ -2633,49 +2940,49 @@
       <c r="A42" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="61">
         <v>4306452</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="61">
         <v>8171</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="61">
         <v>4314623</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:5">
       <c r="A43" s="20"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
     </row>
     <row r="44" ht="15" spans="1:5">
       <c r="A44" s="20"/>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
     </row>
     <row r="45" ht="15" spans="1:5">
       <c r="A45" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="60">
         <v>2471384</v>
       </c>
-      <c r="D45" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="33">
+      <c r="D45" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="60">
         <v>2471384</v>
       </c>
     </row>
@@ -2683,16 +2990,16 @@
       <c r="A46" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="30" t="s">
+      <c r="C46" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="58" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2700,49 +3007,49 @@
       <c r="A47" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="61">
         <v>2471384</v>
       </c>
-      <c r="D47" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="34">
+      <c r="D47" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="61">
         <v>2471384</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:5">
       <c r="A48" s="20"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
     </row>
     <row r="49" ht="15" spans="1:5">
       <c r="A49" s="20"/>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
     </row>
     <row r="50" ht="15" spans="1:5">
       <c r="A50" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C50" s="60">
         <v>29116205</v>
       </c>
-      <c r="D50" s="33">
+      <c r="D50" s="60">
         <v>1009203</v>
       </c>
-      <c r="E50" s="33">
+      <c r="E50" s="60">
         <v>30125408</v>
       </c>
     </row>
@@ -2750,16 +3057,16 @@
       <c r="A51" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="33">
+      <c r="C51" s="60">
         <v>9890048</v>
       </c>
-      <c r="D51" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="33">
+      <c r="D51" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="60">
         <v>9890048</v>
       </c>
     </row>
@@ -2767,16 +3074,16 @@
       <c r="A52" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="60">
         <v>5873482</v>
       </c>
-      <c r="D52" s="33">
+      <c r="D52" s="60">
         <v>-129064</v>
       </c>
-      <c r="E52" s="33">
+      <c r="E52" s="60">
         <v>5744418</v>
       </c>
     </row>
@@ -2784,40 +3091,37 @@
       <c r="A53" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="38">
+      <c r="C53" s="65">
         <v>44879735</v>
       </c>
-      <c r="D53" s="38">
+      <c r="D53" s="65">
         <v>880139</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E53" s="65">
         <v>45759874</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:5">
       <c r="A54" s="17"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
     </row>
     <row r="55" ht="15" spans="1:5">
       <c r="A55" s="17"/>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-    </row>
-    <row r="56" ht="15.75" spans="2:5">
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+    </row>
+    <row r="56" ht="15.75" spans="3:3">
+      <c r="C56" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2832,23 +3136,952 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="59.4571428571429" style="25" customWidth="1"/>
+    <col min="2" max="2" width="38.1809523809524" style="25" customWidth="1"/>
+    <col min="3" max="3" width="22.0857142857143" style="25" customWidth="1"/>
+    <col min="4" max="4" width="55.7238095238095" style="25" customWidth="1"/>
+    <col min="5" max="5" width="23.7238095238095" style="25" customWidth="1"/>
+    <col min="6" max="6" width="19.9047619047619" style="25" customWidth="1"/>
+    <col min="7" max="7" width="24.5428571428571" style="25" customWidth="1"/>
+    <col min="8" max="8" width="55.7238095238095" style="25" customWidth="1"/>
+    <col min="9" max="9" width="22.0857142857143" style="25" customWidth="1"/>
+    <col min="10" max="10" width="21.9047619047619" style="25" customWidth="1"/>
+    <col min="11" max="11" width="9.08571428571429" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="9.18095238095238" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:8">
+      <c r="A1" s="2"/>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" ht="15" spans="1:8">
+      <c r="A2" s="2"/>
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" ht="15" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" ht="15" spans="1:10">
+      <c r="A4" s="2"/>
+      <c r="B4" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" ht="15" spans="1:11">
+      <c r="A5" s="2"/>
+      <c r="B5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" ht="22.5" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" ht="22.5" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" ht="15" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="45">
+        <v>2629048</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="45">
+        <v>437626</v>
+      </c>
+      <c r="F10" s="45">
+        <v>13808</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="45">
+        <v>-2177614</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="45">
+        <v>-2177614</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="47">
+        <v>2736817</v>
+      </c>
+      <c r="D11" s="46" t="str">
+        <f t="shared" ref="D11:D14" si="0">SUBSTITUTE($A11,"Expenses","Revenue")</f>
+        <v>acfr:RevenueForPublicSafetyServices</v>
+      </c>
+      <c r="E11" s="47">
+        <v>48292</v>
+      </c>
+      <c r="F11" s="47">
+        <v>397461</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="47">
+        <v>-2291064</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="47">
+        <v>-2291064</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="47">
+        <v>2509096</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="47">
+        <v>331218</v>
+      </c>
+      <c r="F12" s="47">
+        <v>2344113</v>
+      </c>
+      <c r="G12" s="47">
+        <v>44634</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="47">
+        <v>210869</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="47">
+        <v>210869</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="47">
+        <v>356450</v>
+      </c>
+      <c r="D13" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:RevenueForCommunityAndEconomicDevelopmentServices</v>
+      </c>
+      <c r="E13" s="47">
+        <v>142299</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="47">
+        <v>76140</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="47">
+        <v>-138011</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="47">
+        <v>-138011</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="47">
+        <v>729729</v>
+      </c>
+      <c r="D14" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>acfr:RevenueForParksAndRecreation</v>
+      </c>
+      <c r="E14" s="47">
+        <v>42903</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="47">
+        <v>-686826</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="47">
+        <v>-686826</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="47">
+        <v>8961140</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="47">
+        <v>1002338</v>
+      </c>
+      <c r="F15" s="47">
+        <v>2755382</v>
+      </c>
+      <c r="G15" s="47">
+        <v>120774</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="47">
+        <v>-5082646</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="47">
+        <v>-5082646</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:11">
+      <c r="A16" s="2"/>
+      <c r="B16" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="46" t="str">
+        <f t="shared" ref="D16" si="1">SUBSTITUTE($A16,"Expenses","Revenue")</f>
+        <v/>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" ht="43" customHeight="1" spans="1:11">
+      <c r="A17" s="2"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="46"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" ht="15" spans="1:11">
+      <c r="A18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="47">
+        <v>60694</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="47">
+        <v>16847</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="47">
+        <v>-43847</v>
+      </c>
+      <c r="K18" s="47">
+        <v>-43847</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" spans="1:11">
+      <c r="A19" s="2"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+    </row>
+    <row r="20" ht="15" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="47">
+        <v>60694</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="47">
+        <v>16847</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="47">
+        <v>-43847</v>
+      </c>
+      <c r="K20" s="47">
+        <v>-43847</v>
+      </c>
+    </row>
+    <row r="21" ht="22.5" spans="1:11">
+      <c r="A21" s="2"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="46"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22" ht="15" spans="1:11">
+      <c r="A22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="45">
+        <v>9021834</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="45">
+        <v>1019185</v>
+      </c>
+      <c r="F22" s="45">
+        <v>2755382</v>
+      </c>
+      <c r="G22" s="45">
+        <v>120774</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="47">
+        <v>-5082646</v>
+      </c>
+      <c r="J22" s="47">
+        <v>-43847</v>
+      </c>
+      <c r="K22" s="47">
+        <v>-5126493</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:11">
+      <c r="A23" s="2"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+    </row>
+    <row r="24" ht="15" spans="1:8">
+      <c r="A24" s="2"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="50"/>
+    </row>
+    <row r="25" ht="15" spans="1:11">
+      <c r="A25" s="2"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+    </row>
+    <row r="26" ht="15" spans="1:11">
+      <c r="A26" s="2"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="42"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="47">
+        <v>2846766</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="47">
+        <v>2846766</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:11">
+      <c r="A27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I27" s="47">
+        <v>1348657</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="47">
+        <v>1348657</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:11">
+      <c r="A28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="42"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="47">
+        <v>563908</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="47">
+        <v>563908</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:11">
+      <c r="A29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" s="47">
+        <v>162881</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="47">
+        <v>162881</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:11">
+      <c r="A30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="48"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="47">
+        <v>4922212</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="47">
+        <v>4922212</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:11">
+      <c r="A31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="42"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" s="47">
+        <v>587740</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="47">
+        <v>587740</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:11">
+      <c r="A32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="42"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="47">
+        <v>174443</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="47">
+        <v>174443</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:11">
+      <c r="A33" s="2"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="47">
+        <v>-281502</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="47">
+        <v>-281502</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:11">
+      <c r="A34" s="2"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="47">
+        <v>54512</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="47">
+        <v>54512</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:11">
+      <c r="A35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I35" s="47">
+        <v>6958</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="47">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:11">
+      <c r="A36" s="2"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="I36" s="47">
+        <v>5464363</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="47">
+        <v>5464363</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:11">
+      <c r="A37" s="2"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="48"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="I37" s="47">
+        <v>381717</v>
+      </c>
+      <c r="J37" s="47">
+        <v>-43847</v>
+      </c>
+      <c r="K37" s="47">
+        <v>337870</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:11">
+      <c r="A38" s="2"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="48"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="I38" s="47">
+        <v>44498018</v>
+      </c>
+      <c r="J38" s="47">
+        <v>923986</v>
+      </c>
+      <c r="K38" s="47">
+        <v>45422004</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:11">
+      <c r="A39" s="2"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="48"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" s="45">
+        <v>44879735</v>
+      </c>
+      <c r="J39" s="45">
+        <v>880139</v>
+      </c>
+      <c r="K39" s="45">
+        <v>45759874</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:11">
+      <c r="A40" s="2"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+    </row>
+    <row r="41" ht="15" spans="1:8">
+      <c r="A41" s="2"/>
+      <c r="B41" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="H41" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="82" style="16" customWidth="1"/>
-    <col min="2" max="2" width="38.8571428571429" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.7142857142857" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.4285714285714" style="16" customWidth="1"/>
-    <col min="5" max="5" width="14.2857142857143" style="16" customWidth="1"/>
-    <col min="6" max="7" width="13.4285714285714" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.4285714285714" style="16" customWidth="1"/>
-    <col min="9" max="9" width="11.1428571428571" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="16"/>
+    <col min="2" max="2" width="38.8190476190476" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.7238095238095" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.4571428571429" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.2666666666667" style="16" customWidth="1"/>
+    <col min="6" max="7" width="13.4571428571429" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.4571428571429" style="16" customWidth="1"/>
+    <col min="9" max="9" width="11.1809523809524" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9.18095238095238" style="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:6">
@@ -2861,21 +4094,21 @@
     <row r="2" ht="15" spans="1:6">
       <c r="A2" s="17"/>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" ht="15" spans="1:6">
       <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" ht="15" spans="1:6">
       <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2884,12 +4117,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="19" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2900,22 +4133,22 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="6" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>7</v>
@@ -2924,7 +4157,7 @@
     <row r="7" ht="15" spans="1:9">
       <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2936,10 +4169,10 @@
     </row>
     <row r="8" ht="15" spans="1:9">
       <c r="A8" s="20" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="C8" s="7">
         <v>2846766</v>
@@ -2965,10 +4198,10 @@
     </row>
     <row r="9" ht="15" spans="1:9">
       <c r="A9" s="20" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
@@ -2994,10 +4227,10 @@
     </row>
     <row r="10" ht="15" spans="1:9">
       <c r="A10" s="20" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
@@ -3023,10 +4256,10 @@
     </row>
     <row r="11" ht="15" spans="1:9">
       <c r="A11" s="20" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="C11" s="8">
         <v>563908</v>
@@ -3052,10 +4285,10 @@
     </row>
     <row r="12" ht="15" spans="1:9">
       <c r="A12" s="20" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="C12" s="8">
         <v>162881</v>
@@ -3081,10 +4314,10 @@
     </row>
     <row r="13" ht="15" spans="1:9">
       <c r="A13" s="20" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="C13" s="8">
         <v>114026</v>
@@ -3110,10 +4343,10 @@
     </row>
     <row r="14" ht="15" spans="1:9">
       <c r="A14" s="20" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="C14" s="8">
         <v>151409</v>
@@ -3139,10 +4372,10 @@
     </row>
     <row r="15" ht="15" spans="1:9">
       <c r="A15" s="20" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C15" s="8">
         <v>135233</v>
@@ -3168,10 +4401,10 @@
     </row>
     <row r="16" ht="15" spans="1:9">
       <c r="A16" s="20" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -3189,10 +4422,10 @@
     </row>
     <row r="17" ht="15" spans="1:9">
       <c r="A17" s="20" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="C17" s="8">
         <v>174443</v>
@@ -3218,10 +4451,10 @@
     </row>
     <row r="18" ht="15" spans="1:9">
       <c r="A18" s="20" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C18" s="8">
         <v>587740</v>
@@ -3247,10 +4480,10 @@
     </row>
     <row r="19" ht="15" spans="1:9">
       <c r="A19" s="20" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="C19" s="8">
         <v>305645</v>
@@ -3276,10 +4509,10 @@
     </row>
     <row r="20" ht="15" spans="1:9">
       <c r="A20" s="20" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="C20" s="8">
         <v>-185018</v>
@@ -3305,10 +4538,10 @@
     </row>
     <row r="21" ht="15" spans="1:9">
       <c r="A21" s="20" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="C21" s="8">
         <v>40844</v>
@@ -3334,10 +4567,10 @@
     </row>
     <row r="22" ht="15" spans="1:9">
       <c r="A22" s="20" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="C22" s="8">
         <v>4897877</v>
@@ -3375,7 +4608,7 @@
     <row r="24" ht="15" spans="1:9">
       <c r="A24" s="20"/>
       <c r="B24" s="1" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -3388,7 +4621,7 @@
     <row r="25" ht="15" spans="1:9">
       <c r="A25" s="20"/>
       <c r="B25" s="1" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -3400,10 +4633,10 @@
     </row>
     <row r="26" ht="15" spans="1:9">
       <c r="A26" s="20" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C26" s="8">
         <v>2570417</v>
@@ -3429,10 +4662,10 @@
     </row>
     <row r="27" ht="15" spans="1:9">
       <c r="A27" s="20" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C27" s="8">
         <v>2684319</v>
@@ -3458,10 +4691,10 @@
     </row>
     <row r="28" ht="15" spans="1:9">
       <c r="A28" s="20" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C28" s="8">
         <v>333423</v>
@@ -3487,10 +4720,10 @@
     </row>
     <row r="29" ht="15" spans="1:9">
       <c r="A29" s="20" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C29" s="8">
         <v>299175</v>
@@ -3516,10 +4749,10 @@
     </row>
     <row r="30" ht="15" spans="1:9">
       <c r="A30" s="20" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C30" s="8">
         <v>336592</v>
@@ -3545,10 +4778,10 @@
     </row>
     <row r="31" ht="15" spans="1:9">
       <c r="A31" s="20" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="C31" s="8">
         <v>22168</v>
@@ -3574,10 +4807,10 @@
     </row>
     <row r="32" ht="15" spans="1:9">
       <c r="A32" s="20" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="C32" s="8">
         <v>6246094</v>
@@ -3603,10 +4836,10 @@
     </row>
     <row r="33" ht="32.25" customHeight="1" spans="1:9">
       <c r="A33" s="20" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="C33" s="8">
         <v>-1348217</v>
@@ -3633,7 +4866,7 @@
     <row r="34" ht="15" spans="1:9">
       <c r="A34" s="20"/>
       <c r="B34" s="1" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -3645,10 +4878,10 @@
     </row>
     <row r="35" ht="15" spans="1:9">
       <c r="A35" s="20" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>15</v>
@@ -3674,10 +4907,10 @@
     </row>
     <row r="36" ht="15" spans="1:9">
       <c r="A36" s="20" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="C36" s="8">
         <v>1597681</v>
@@ -3703,10 +4936,10 @@
     </row>
     <row r="37" ht="15" spans="1:9">
       <c r="A37" s="20" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>15</v>
@@ -3732,10 +4965,10 @@
     </row>
     <row r="38" ht="15" spans="1:9">
       <c r="A38" s="20" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="C38" s="8">
         <v>1597681</v>
@@ -3761,10 +4994,10 @@
     </row>
     <row r="39" ht="15" spans="1:9">
       <c r="A39" s="20" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="C39" s="8">
         <v>249464</v>
@@ -3783,7 +5016,7 @@
     <row r="40" ht="15" spans="1:9">
       <c r="A40" s="20"/>
       <c r="B40" s="1" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -3803,10 +5036,10 @@
     </row>
     <row r="41" ht="15" spans="1:9">
       <c r="A41" s="20" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="C41" s="8">
         <v>6163893</v>
@@ -3832,10 +5065,10 @@
     </row>
     <row r="42" ht="15" spans="1:9">
       <c r="A42" s="20" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="C42" s="7">
         <v>6413357</v>
@@ -3881,27 +5114,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="75.2857142857143" style="16" customWidth="1"/>
+    <col min="1" max="1" width="75.2666666666667" style="16" customWidth="1"/>
     <col min="2" max="2" width="38" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.2857142857143" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.7142857142857" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.8571428571429" style="16" customWidth="1"/>
-    <col min="6" max="6" width="16.5714285714286" style="16" customWidth="1"/>
-    <col min="7" max="7" width="15.4285714285714" style="16" customWidth="1"/>
-    <col min="8" max="8" width="14.8571428571429" style="16" customWidth="1"/>
-    <col min="9" max="9" width="12.8571428571429" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="16"/>
+    <col min="3" max="3" width="14.2666666666667" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.7238095238095" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.8190476190476" style="16" customWidth="1"/>
+    <col min="6" max="6" width="16.5428571428571" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.4571428571429" style="16" customWidth="1"/>
+    <col min="8" max="8" width="14.8190476190476" style="16" customWidth="1"/>
+    <col min="9" max="9" width="12.8190476190476" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9.18095238095238" style="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
@@ -3913,14 +5146,14 @@
     <row r="2" ht="15" spans="1:6">
       <c r="A2" s="17"/>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" ht="15" spans="1:6">
       <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -3935,11 +5168,11 @@
       <c r="A5" s="17"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:9">
@@ -3947,22 +5180,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>7</v>
@@ -3976,7 +5209,7 @@
     </row>
     <row r="8" ht="15" spans="1:9">
       <c r="A8" s="20" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -4005,10 +5238,10 @@
     </row>
     <row r="9" ht="15" spans="1:9">
       <c r="A9" s="20" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="C9" s="8">
         <v>646294</v>
@@ -4032,7 +5265,7 @@
     </row>
     <row r="10" ht="15" spans="1:9">
       <c r="A10" s="20" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -4059,7 +5292,7 @@
     </row>
     <row r="11" ht="15" spans="1:9">
       <c r="A11" s="20" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>26</v>
@@ -4086,7 +5319,7 @@
     </row>
     <row r="12" ht="15" spans="1:9">
       <c r="A12" s="20" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
@@ -4113,10 +5346,10 @@
     </row>
     <row r="13" ht="15" spans="1:9">
       <c r="A13" s="20" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="C13" s="8">
         <v>52578</v>
@@ -4140,10 +5373,10 @@
     </row>
     <row r="14" ht="15" spans="1:9">
       <c r="A14" s="20" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="C14" s="8">
         <v>120893</v>
@@ -4167,10 +5400,10 @@
     </row>
     <row r="15" ht="15" spans="1:9">
       <c r="A15" s="20" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>15</v>
@@ -4190,7 +5423,7 @@
     </row>
     <row r="16" ht="15" spans="1:9">
       <c r="A16" s="20" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>36</v>
@@ -4231,7 +5464,7 @@
     <row r="18" ht="15" spans="1:9">
       <c r="A18" s="20"/>
       <c r="B18" s="1" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -4246,7 +5479,7 @@
     <row r="19" ht="15" spans="1:9">
       <c r="A19" s="20"/>
       <c r="B19" s="1" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -4261,7 +5494,7 @@
     <row r="20" ht="15" spans="1:9">
       <c r="A20" s="20"/>
       <c r="B20" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -4275,7 +5508,7 @@
     </row>
     <row r="21" ht="15" spans="1:9">
       <c r="A21" s="20" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>47</v>
@@ -4304,10 +5537,10 @@
     </row>
     <row r="22" ht="15" spans="1:9">
       <c r="A22" s="20" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="C22" s="8">
         <v>71658</v>
@@ -4333,7 +5566,7 @@
     </row>
     <row r="23" ht="15" spans="1:9">
       <c r="A23" s="20" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>51</v>
@@ -4362,10 +5595,10 @@
     </row>
     <row r="24" ht="15" spans="1:9">
       <c r="A24" s="20" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="C24" s="8">
         <v>83645</v>
@@ -4391,7 +5624,7 @@
     </row>
     <row r="25" ht="15" spans="1:9">
       <c r="A25" s="20" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>53</v>
@@ -4420,7 +5653,7 @@
     </row>
     <row r="26" ht="15" spans="1:9">
       <c r="A26" s="20" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>72</v>
@@ -4461,7 +5694,7 @@
     <row r="28" ht="15" spans="1:9">
       <c r="A28" s="20"/>
       <c r="B28" s="1" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -4475,10 +5708,10 @@
     </row>
     <row r="29" ht="15" spans="1:9">
       <c r="A29" s="20" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="C29" s="8">
         <v>260379</v>
@@ -4504,7 +5737,7 @@
     </row>
     <row r="30" ht="15" spans="1:9">
       <c r="A30" s="20" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>79</v>
@@ -4545,7 +5778,7 @@
     <row r="32" ht="15" spans="1:9">
       <c r="A32" s="20"/>
       <c r="B32" s="1" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -4559,10 +5792,10 @@
     </row>
     <row r="33" ht="15" spans="1:9">
       <c r="A33" s="20" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="C33" s="8">
         <v>173471</v>
@@ -4588,10 +5821,10 @@
     </row>
     <row r="34" ht="15" spans="1:9">
       <c r="A34" s="20" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>15</v>
@@ -4615,10 +5848,10 @@
     </row>
     <row r="35" ht="15" spans="1:9">
       <c r="A35" s="20" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="C35" s="8">
         <v>495019</v>
@@ -4642,10 +5875,10 @@
     </row>
     <row r="36" ht="15" spans="1:9">
       <c r="A36" s="20" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>15</v>
@@ -4669,10 +5902,10 @@
     </row>
     <row r="37" ht="15" spans="1:9">
       <c r="A37" s="20" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="C37" s="8">
         <v>5744867</v>
@@ -4696,10 +5929,10 @@
     </row>
     <row r="38" ht="15" spans="1:9">
       <c r="A38" s="20" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="C38" s="8">
         <v>6413357</v>
@@ -4723,10 +5956,10 @@
     </row>
     <row r="39" ht="30" spans="1:9">
       <c r="A39" s="20" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="C39" s="7">
         <v>6830902</v>
@@ -4771,7 +6004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D25"/>
@@ -4780,12 +6013,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="44.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.1428571428571" style="1" customWidth="1"/>
-    <col min="3" max="4" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="44.4571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.1809523809524" style="1" customWidth="1"/>
+    <col min="3" max="4" width="19.7238095238095" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.18095238095238" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4797,7 +6030,7 @@
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4817,10 +6050,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4834,7 +6067,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -4858,17 +6091,17 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="C10" s="8">
         <v>167738</v>
@@ -4882,7 +6115,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="C11" s="8">
         <v>841465</v>
@@ -4916,7 +6149,7 @@
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -4940,7 +6173,7 @@
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -4965,10 +6198,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c r="C18" s="8">
         <v>120893</v>
@@ -5049,331 +6282,6 @@
       <c r="B25" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="51.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" ht="60" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="7">
-        <v>16847</v>
-      </c>
-      <c r="D7" s="7">
-        <v>111900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="8">
-        <v>16847</v>
-      </c>
-      <c r="D8" s="8">
-        <v>111900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="8">
-        <v>4833</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C11" s="8">
-        <v>26989</v>
-      </c>
-      <c r="D11" s="8">
-        <v>8564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="8">
-        <v>28872</v>
-      </c>
-      <c r="D12" s="8">
-        <v>100425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C13" s="8">
-        <v>60694</v>
-      </c>
-      <c r="D13" s="8">
-        <v>108989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="8">
-        <v>-43847</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2911</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8">
-        <v>6958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="8">
-        <v>-14675</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="8">
-        <v>-7717</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A19" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="15">
-        <v>-43847</v>
-      </c>
-      <c r="D19" s="15">
-        <v>-4806</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C22" s="8">
-        <v>-43847</v>
-      </c>
-      <c r="D22" s="8">
-        <v>-4806</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C24" s="8">
-        <v>923986</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1005542</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="7">
-        <v>880139</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1000736</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5384,21 +6292,19 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="56.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.5714285714286" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9.14285714285714" style="1"/>
-    <col min="8" max="8" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="51.5428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.2666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8190476190476" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.18095238095238" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5410,19 +6316,346 @@
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" ht="60" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="7">
+        <v>16847</v>
+      </c>
+      <c r="D7" s="7">
+        <v>111900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="8">
+        <v>16847</v>
+      </c>
+      <c r="D8" s="8">
+        <v>111900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4833</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="8">
+        <v>26989</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="8">
+        <v>28872</v>
+      </c>
+      <c r="D12" s="8">
+        <v>100425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="8">
+        <v>60694</v>
+      </c>
+      <c r="D13" s="8">
+        <v>108989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="8">
+        <v>-43847</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8">
+        <v>-14675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8">
+        <v>-7717</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A19" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="15">
+        <v>-43847</v>
+      </c>
+      <c r="D19" s="15">
+        <v>-4806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22" s="8">
+        <v>-43847</v>
+      </c>
+      <c r="D22" s="8">
+        <v>-4806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="8">
+        <v>923986</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1005542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="7">
+        <v>880139</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1000736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="56.7238095238095" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.4571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9.18095238095238" style="1"/>
+    <col min="8" max="8" width="21.4571428571429" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.18095238095238" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:5">
@@ -5430,27 +6663,27 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="C7" s="7">
         <v>20847</v>
@@ -5461,10 +6694,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="C8" s="8">
         <v>-24734</v>
@@ -5475,10 +6708,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="C9" s="8">
         <v>-4833</v>
@@ -5489,10 +6722,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>263</v>
+        <v>331</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
@@ -5503,10 +6736,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="C11" s="8">
         <v>-8720</v>
@@ -5518,17 +6751,17 @@
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>266</v>
+        <v>334</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c r="C13" s="8">
         <v>8720</v>
@@ -5539,10 +6772,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="C14" s="8">
         <v>8720</v>
@@ -5554,17 +6787,17 @@
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>270</v>
+        <v>338</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -5575,10 +6808,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>15</v>
@@ -5589,10 +6822,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>15</v>
@@ -5604,17 +6837,17 @@
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>15</v>
@@ -5625,10 +6858,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>15</v>
@@ -5639,10 +6872,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>282</v>
+        <v>350</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>15</v>
@@ -5654,17 +6887,17 @@
     <row r="23" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
-        <v>283</v>
+        <v>351</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>284</v>
+        <v>352</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>15</v>
@@ -5675,10 +6908,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>284</v>
+        <v>352</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>12</v>
@@ -5690,7 +6923,7 @@
     <row r="26" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>285</v>
+        <v>353</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -5698,7 +6931,7 @@
     <row r="27" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>286</v>
+        <v>354</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -5706,17 +6939,17 @@
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>287</v>
+        <v>355</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>234</v>
+        <v>305</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>288</v>
+        <v>356</v>
       </c>
       <c r="C29" s="7">
         <v>-43847</v>
@@ -5728,7 +6961,7 @@
     <row r="30" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>289</v>
+        <v>357</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -5736,17 +6969,17 @@
     <row r="31" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="C32" s="8">
         <v>28872</v>
@@ -5758,17 +6991,17 @@
     <row r="33" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
-        <v>291</v>
+        <v>359</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>292</v>
+        <v>360</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>293</v>
+        <v>361</v>
       </c>
       <c r="C34" s="8">
         <v>2255</v>
@@ -5779,10 +7012,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>294</v>
+        <v>362</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>295</v>
+        <v>363</v>
       </c>
       <c r="C35" s="8">
         <v>4000</v>
@@ -5793,10 +7026,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>296</v>
+        <v>364</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>297</v>
+        <v>365</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>15</v>
@@ -5807,10 +7040,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="C37" s="7">
         <v>-8720</v>

--- a/CA_Clayton_2022.xlsx
+++ b/CA_Clayton_2022.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="364">
   <si>
     <t>City of Clayton</t>
   </si>
@@ -307,16 +307,10 @@
     <t>D20220630</t>
   </si>
   <si>
-    <t>XBRL_Element</t>
-  </si>
-  <si>
     <t>Functions/Programs</t>
   </si>
   <si>
     <t>Expenses</t>
-  </si>
-  <si>
-    <t>XBRL_Elment</t>
   </si>
   <si>
     <t>Charges for Services</t>
@@ -1127,11 +1121,11 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="[$$-809]#,##0"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1156,11 +1150,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1226,29 +1215,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1256,9 +1222,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1270,23 +1273,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1303,15 +1298,37 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,28 +1344,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1356,21 +1351,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,19 +1392,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,31 +1452,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,37 +1542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,67 +1560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,6 +1604,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1648,8 +1646,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1665,6 +1663,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1694,170 +1701,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1892,84 +1881,84 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="32" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="32" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="32" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="32" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="32"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="32" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="32" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="32" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="32" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="32" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="32" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="32" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1984,9 +1973,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3139,7 +3128,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
@@ -3226,36 +3215,36 @@
       <c r="J6" s="36"/>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" ht="22.5" spans="1:11">
+    <row r="7" ht="24" spans="1:11">
       <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="D7" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="F7" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="G7" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>101</v>
-      </c>
       <c r="H7" s="39" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="I7" s="40" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K7" s="40" t="s">
         <v>7</v>
@@ -3264,7 +3253,7 @@
     <row r="8" ht="15" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="14"/>
       <c r="H8" s="14"/>
@@ -3279,28 +3268,28 @@
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="44" t="s">
         <v>104</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>106</v>
       </c>
       <c r="H9" s="14"/>
     </row>
     <row r="10" ht="15" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="45">
         <v>2629048</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="45">
         <v>437626</v>
@@ -3312,7 +3301,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I10" s="45">
         <v>-2177614</v>
@@ -3326,10 +3315,10 @@
     </row>
     <row r="11" ht="15" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C11" s="47">
         <v>2736817</v>
@@ -3348,7 +3337,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I11" s="47">
         <v>-2291064</v>
@@ -3362,16 +3351,16 @@
     </row>
     <row r="12" ht="15" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="47">
         <v>2509096</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E12" s="47">
         <v>331218</v>
@@ -3383,7 +3372,7 @@
         <v>44634</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I12" s="47">
         <v>210869</v>
@@ -3397,10 +3386,10 @@
     </row>
     <row r="13" ht="15" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="47">
         <v>356450</v>
@@ -3419,7 +3408,7 @@
         <v>76140</v>
       </c>
       <c r="H13" s="46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I13" s="47">
         <v>-138011</v>
@@ -3433,10 +3422,10 @@
     </row>
     <row r="14" ht="15" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="47">
         <v>729729</v>
@@ -3455,7 +3444,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I14" s="47">
         <v>-686826</v>
@@ -3469,16 +3458,16 @@
     </row>
     <row r="15" ht="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C15" s="47">
         <v>8961140</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15" s="47">
         <v>1002338</v>
@@ -3490,7 +3479,7 @@
         <v>120774</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I15" s="47">
         <v>-5082646</v>
@@ -3505,7 +3494,7 @@
     <row r="16" ht="15" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="46" t="str">
@@ -3516,7 +3505,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
@@ -3526,17 +3515,17 @@
       <c r="A17" s="2"/>
       <c r="B17" s="42"/>
       <c r="C17" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="44" t="s">
         <v>131</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>133</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="34"/>
@@ -3545,16 +3534,16 @@
     </row>
     <row r="18" ht="15" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" s="47">
         <v>60694</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E18" s="47">
         <v>16847</v>
@@ -3566,7 +3555,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>15</v>
@@ -3586,13 +3575,13 @@
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="44" t="s">
         <v>135</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="36"/>
@@ -3601,16 +3590,16 @@
     </row>
     <row r="20" ht="15" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="47">
         <v>60694</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E20" s="47">
         <v>16847</v>
@@ -3622,7 +3611,7 @@
         <v>15</v>
       </c>
       <c r="H20" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I20" s="36" t="s">
         <v>15</v>
@@ -3642,13 +3631,13 @@
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="44" t="s">
         <v>139</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>141</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="36"/>
@@ -3657,16 +3646,16 @@
     </row>
     <row r="22" ht="15" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C22" s="45">
         <v>9021834</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E22" s="45">
         <v>1019185</v>
@@ -3678,7 +3667,7 @@
         <v>120774</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I22" s="47">
         <v>-5082646</v>
@@ -3707,7 +3696,7 @@
       <c r="A24" s="2"/>
       <c r="D24" s="50"/>
       <c r="E24" s="48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F24" s="48"/>
       <c r="G24" s="34"/>
@@ -3717,7 +3706,7 @@
       <c r="A25" s="2"/>
       <c r="D25" s="50"/>
       <c r="E25" s="42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="34"/>
@@ -3730,12 +3719,12 @@
       <c r="A26" s="2"/>
       <c r="D26" s="51"/>
       <c r="E26" s="42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="34"/>
       <c r="H26" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I26" s="47">
         <v>2846766</v>
@@ -3751,12 +3740,12 @@
       <c r="A27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="34"/>
       <c r="H27" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I27" s="47">
         <v>1348657</v>
@@ -3772,12 +3761,12 @@
       <c r="A28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="34"/>
       <c r="H28" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I28" s="47">
         <v>563908</v>
@@ -3793,12 +3782,12 @@
       <c r="A29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="34"/>
       <c r="H29" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I29" s="47">
         <v>162881</v>
@@ -3814,7 +3803,7 @@
       <c r="A30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F30" s="48"/>
       <c r="G30" s="34"/>
@@ -3833,12 +3822,12 @@
       <c r="A31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="34"/>
       <c r="H31" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I31" s="47">
         <v>587740</v>
@@ -3854,12 +3843,12 @@
       <c r="A32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="34"/>
       <c r="H32" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I32" s="47">
         <v>174443</v>
@@ -3875,12 +3864,12 @@
       <c r="A33" s="2"/>
       <c r="D33" s="51"/>
       <c r="E33" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="34"/>
       <c r="H33" s="51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I33" s="47">
         <v>-281502</v>
@@ -3896,12 +3885,12 @@
       <c r="A34" s="2"/>
       <c r="D34" s="51"/>
       <c r="E34" s="42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="34"/>
       <c r="H34" s="51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I34" s="47">
         <v>54512</v>
@@ -3917,12 +3906,12 @@
       <c r="A35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="34"/>
       <c r="H35" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I35" s="47">
         <v>6958</v>
@@ -3938,12 +3927,12 @@
       <c r="A36" s="2"/>
       <c r="D36" s="51"/>
       <c r="E36" s="48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F36" s="48"/>
       <c r="G36" s="34"/>
       <c r="H36" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I36" s="47">
         <v>5464363</v>
@@ -3959,12 +3948,12 @@
       <c r="A37" s="2"/>
       <c r="D37" s="51"/>
       <c r="E37" s="48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F37" s="48"/>
       <c r="G37" s="34"/>
       <c r="H37" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I37" s="47">
         <v>381717</v>
@@ -3980,12 +3969,12 @@
       <c r="A38" s="2"/>
       <c r="D38" s="51"/>
       <c r="E38" s="48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F38" s="48"/>
       <c r="G38" s="34"/>
       <c r="H38" s="51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I38" s="47">
         <v>44498018</v>
@@ -4001,7 +3990,7 @@
       <c r="A39" s="2"/>
       <c r="D39" s="51"/>
       <c r="E39" s="48" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F39" s="48"/>
       <c r="G39" s="34"/>
@@ -4094,14 +4083,14 @@
     <row r="2" ht="15" spans="1:6">
       <c r="A2" s="17"/>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" ht="15" spans="1:6">
       <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -4117,12 +4106,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4133,22 +4122,22 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>7</v>
@@ -4157,7 +4146,7 @@
     <row r="7" ht="15" spans="1:9">
       <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4169,10 +4158,10 @@
     </row>
     <row r="8" ht="15" spans="1:9">
       <c r="A8" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" s="7">
         <v>2846766</v>
@@ -4198,10 +4187,10 @@
     </row>
     <row r="9" ht="15" spans="1:9">
       <c r="A9" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
@@ -4227,10 +4216,10 @@
     </row>
     <row r="10" ht="15" spans="1:9">
       <c r="A10" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
@@ -4256,10 +4245,10 @@
     </row>
     <row r="11" ht="15" spans="1:9">
       <c r="A11" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C11" s="8">
         <v>563908</v>
@@ -4285,10 +4274,10 @@
     </row>
     <row r="12" ht="15" spans="1:9">
       <c r="A12" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C12" s="8">
         <v>162881</v>
@@ -4314,10 +4303,10 @@
     </row>
     <row r="13" ht="15" spans="1:9">
       <c r="A13" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13" s="8">
         <v>114026</v>
@@ -4343,10 +4332,10 @@
     </row>
     <row r="14" ht="15" spans="1:9">
       <c r="A14" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C14" s="8">
         <v>151409</v>
@@ -4372,10 +4361,10 @@
     </row>
     <row r="15" ht="15" spans="1:9">
       <c r="A15" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C15" s="8">
         <v>135233</v>
@@ -4401,10 +4390,10 @@
     </row>
     <row r="16" ht="15" spans="1:9">
       <c r="A16" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -4422,10 +4411,10 @@
     </row>
     <row r="17" ht="15" spans="1:9">
       <c r="A17" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C17" s="8">
         <v>174443</v>
@@ -4451,10 +4440,10 @@
     </row>
     <row r="18" ht="15" spans="1:9">
       <c r="A18" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" s="8">
         <v>587740</v>
@@ -4480,10 +4469,10 @@
     </row>
     <row r="19" ht="15" spans="1:9">
       <c r="A19" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C19" s="8">
         <v>305645</v>
@@ -4509,10 +4498,10 @@
     </row>
     <row r="20" ht="15" spans="1:9">
       <c r="A20" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C20" s="8">
         <v>-185018</v>
@@ -4538,10 +4527,10 @@
     </row>
     <row r="21" ht="15" spans="1:9">
       <c r="A21" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C21" s="8">
         <v>40844</v>
@@ -4567,10 +4556,10 @@
     </row>
     <row r="22" ht="15" spans="1:9">
       <c r="A22" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C22" s="8">
         <v>4897877</v>
@@ -4608,7 +4597,7 @@
     <row r="24" ht="15" spans="1:9">
       <c r="A24" s="20"/>
       <c r="B24" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -4621,7 +4610,7 @@
     <row r="25" ht="15" spans="1:9">
       <c r="A25" s="20"/>
       <c r="B25" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -4633,10 +4622,10 @@
     </row>
     <row r="26" ht="15" spans="1:9">
       <c r="A26" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C26" s="8">
         <v>2570417</v>
@@ -4662,10 +4651,10 @@
     </row>
     <row r="27" ht="15" spans="1:9">
       <c r="A27" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27" s="8">
         <v>2684319</v>
@@ -4691,10 +4680,10 @@
     </row>
     <row r="28" ht="15" spans="1:9">
       <c r="A28" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C28" s="8">
         <v>333423</v>
@@ -4720,10 +4709,10 @@
     </row>
     <row r="29" ht="15" spans="1:9">
       <c r="A29" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C29" s="8">
         <v>299175</v>
@@ -4749,10 +4738,10 @@
     </row>
     <row r="30" ht="15" spans="1:9">
       <c r="A30" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" s="8">
         <v>336592</v>
@@ -4778,10 +4767,10 @@
     </row>
     <row r="31" ht="15" spans="1:9">
       <c r="A31" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C31" s="8">
         <v>22168</v>
@@ -4807,10 +4796,10 @@
     </row>
     <row r="32" ht="15" spans="1:9">
       <c r="A32" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C32" s="8">
         <v>6246094</v>
@@ -4836,10 +4825,10 @@
     </row>
     <row r="33" ht="32.25" customHeight="1" spans="1:9">
       <c r="A33" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C33" s="8">
         <v>-1348217</v>
@@ -4866,7 +4855,7 @@
     <row r="34" ht="15" spans="1:9">
       <c r="A34" s="20"/>
       <c r="B34" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -4878,10 +4867,10 @@
     </row>
     <row r="35" ht="15" spans="1:9">
       <c r="A35" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>15</v>
@@ -4907,10 +4896,10 @@
     </row>
     <row r="36" ht="15" spans="1:9">
       <c r="A36" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C36" s="8">
         <v>1597681</v>
@@ -4936,10 +4925,10 @@
     </row>
     <row r="37" ht="15" spans="1:9">
       <c r="A37" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>15</v>
@@ -4965,10 +4954,10 @@
     </row>
     <row r="38" ht="15" spans="1:9">
       <c r="A38" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C38" s="8">
         <v>1597681</v>
@@ -4994,10 +4983,10 @@
     </row>
     <row r="39" ht="15" spans="1:9">
       <c r="A39" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C39" s="8">
         <v>249464</v>
@@ -5016,7 +5005,7 @@
     <row r="40" ht="15" spans="1:9">
       <c r="A40" s="20"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -5036,10 +5025,10 @@
     </row>
     <row r="41" ht="15" spans="1:9">
       <c r="A41" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C41" s="8">
         <v>6163893</v>
@@ -5065,10 +5054,10 @@
     </row>
     <row r="42" ht="15" spans="1:9">
       <c r="A42" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C42" s="7">
         <v>6413357</v>
@@ -5146,14 +5135,14 @@
     <row r="2" ht="15" spans="1:6">
       <c r="A2" s="17"/>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" ht="15" spans="1:6">
       <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -5168,11 +5157,11 @@
       <c r="A5" s="17"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:9">
@@ -5180,22 +5169,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>7</v>
@@ -5209,7 +5198,7 @@
     </row>
     <row r="8" ht="15" spans="1:9">
       <c r="A8" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -5238,10 +5227,10 @@
     </row>
     <row r="9" ht="15" spans="1:9">
       <c r="A9" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C9" s="8">
         <v>646294</v>
@@ -5265,7 +5254,7 @@
     </row>
     <row r="10" ht="15" spans="1:9">
       <c r="A10" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -5292,7 +5281,7 @@
     </row>
     <row r="11" ht="15" spans="1:9">
       <c r="A11" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>26</v>
@@ -5319,7 +5308,7 @@
     </row>
     <row r="12" ht="15" spans="1:9">
       <c r="A12" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
@@ -5346,10 +5335,10 @@
     </row>
     <row r="13" ht="15" spans="1:9">
       <c r="A13" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C13" s="8">
         <v>52578</v>
@@ -5373,10 +5362,10 @@
     </row>
     <row r="14" ht="15" spans="1:9">
       <c r="A14" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C14" s="8">
         <v>120893</v>
@@ -5400,10 +5389,10 @@
     </row>
     <row r="15" ht="15" spans="1:9">
       <c r="A15" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>15</v>
@@ -5423,7 +5412,7 @@
     </row>
     <row r="16" ht="15" spans="1:9">
       <c r="A16" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>36</v>
@@ -5464,7 +5453,7 @@
     <row r="18" ht="15" spans="1:9">
       <c r="A18" s="20"/>
       <c r="B18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -5479,7 +5468,7 @@
     <row r="19" ht="15" spans="1:9">
       <c r="A19" s="20"/>
       <c r="B19" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -5494,7 +5483,7 @@
     <row r="20" ht="15" spans="1:9">
       <c r="A20" s="20"/>
       <c r="B20" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -5508,7 +5497,7 @@
     </row>
     <row r="21" ht="15" spans="1:9">
       <c r="A21" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>47</v>
@@ -5537,10 +5526,10 @@
     </row>
     <row r="22" ht="15" spans="1:9">
       <c r="A22" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C22" s="8">
         <v>71658</v>
@@ -5566,7 +5555,7 @@
     </row>
     <row r="23" ht="15" spans="1:9">
       <c r="A23" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>51</v>
@@ -5595,10 +5584,10 @@
     </row>
     <row r="24" ht="15" spans="1:9">
       <c r="A24" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C24" s="8">
         <v>83645</v>
@@ -5624,7 +5613,7 @@
     </row>
     <row r="25" ht="15" spans="1:9">
       <c r="A25" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>53</v>
@@ -5653,7 +5642,7 @@
     </row>
     <row r="26" ht="15" spans="1:9">
       <c r="A26" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>72</v>
@@ -5694,7 +5683,7 @@
     <row r="28" ht="15" spans="1:9">
       <c r="A28" s="20"/>
       <c r="B28" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -5708,10 +5697,10 @@
     </row>
     <row r="29" ht="15" spans="1:9">
       <c r="A29" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C29" s="8">
         <v>260379</v>
@@ -5737,7 +5726,7 @@
     </row>
     <row r="30" ht="15" spans="1:9">
       <c r="A30" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>79</v>
@@ -5778,7 +5767,7 @@
     <row r="32" ht="15" spans="1:9">
       <c r="A32" s="20"/>
       <c r="B32" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -5792,10 +5781,10 @@
     </row>
     <row r="33" ht="15" spans="1:9">
       <c r="A33" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C33" s="8">
         <v>173471</v>
@@ -5821,10 +5810,10 @@
     </row>
     <row r="34" ht="15" spans="1:9">
       <c r="A34" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>15</v>
@@ -5848,10 +5837,10 @@
     </row>
     <row r="35" ht="15" spans="1:9">
       <c r="A35" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C35" s="8">
         <v>495019</v>
@@ -5875,10 +5864,10 @@
     </row>
     <row r="36" ht="15" spans="1:9">
       <c r="A36" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>15</v>
@@ -5902,10 +5891,10 @@
     </row>
     <row r="37" ht="15" spans="1:9">
       <c r="A37" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C37" s="8">
         <v>5744867</v>
@@ -5929,10 +5918,10 @@
     </row>
     <row r="38" ht="15" spans="1:9">
       <c r="A38" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C38" s="8">
         <v>6413357</v>
@@ -5956,10 +5945,10 @@
     </row>
     <row r="39" ht="30" spans="1:9">
       <c r="A39" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C39" s="7">
         <v>6830902</v>
@@ -6030,7 +6019,7 @@
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6050,10 +6039,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6067,7 +6056,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -6091,17 +6080,17 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C10" s="8">
         <v>167738</v>
@@ -6115,7 +6104,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C11" s="8">
         <v>841465</v>
@@ -6149,7 +6138,7 @@
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -6173,7 +6162,7 @@
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -6198,10 +6187,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C18" s="8">
         <v>120893</v>
@@ -6316,13 +6305,13 @@
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6336,26 +6325,26 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C7" s="7">
         <v>16847</v>
@@ -6366,10 +6355,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C8" s="8">
         <v>16847</v>
@@ -6381,17 +6370,17 @@
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C10" s="8">
         <v>4833</v>
@@ -6402,10 +6391,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C11" s="8">
         <v>26989</v>
@@ -6416,10 +6405,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C12" s="8">
         <v>28872</v>
@@ -6430,10 +6419,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C13" s="8">
         <v>60694</v>
@@ -6444,10 +6433,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C14" s="8">
         <v>-43847</v>
@@ -6459,17 +6448,17 @@
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -6480,10 +6469,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>15</v>
@@ -6494,10 +6483,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>15</v>
@@ -6508,10 +6497,10 @@
     </row>
     <row r="19" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
       <c r="A19" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C19" s="15">
         <v>-43847</v>
@@ -6522,10 +6511,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>15</v>
@@ -6536,10 +6525,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>15</v>
@@ -6550,10 +6539,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C22" s="8">
         <v>-43847</v>
@@ -6565,17 +6554,17 @@
     <row r="23" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C24" s="8">
         <v>923986</v>
@@ -6589,7 +6578,7 @@
         <v>87</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C25" s="7">
         <v>880139</v>
@@ -6643,13 +6632,13 @@
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6663,27 +6652,27 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C7" s="7">
         <v>20847</v>
@@ -6694,10 +6683,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C8" s="8">
         <v>-24734</v>
@@ -6708,10 +6697,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C9" s="8">
         <v>-4833</v>
@@ -6722,10 +6711,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
@@ -6736,10 +6725,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C11" s="8">
         <v>-8720</v>
@@ -6751,17 +6740,17 @@
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C13" s="8">
         <v>8720</v>
@@ -6772,10 +6761,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C14" s="8">
         <v>8720</v>
@@ -6787,17 +6776,17 @@
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -6808,10 +6797,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>15</v>
@@ -6822,10 +6811,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>15</v>
@@ -6837,17 +6826,17 @@
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>15</v>
@@ -6858,10 +6847,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>15</v>
@@ -6872,10 +6861,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>15</v>
@@ -6887,17 +6876,17 @@
     <row r="23" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>15</v>
@@ -6908,10 +6897,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>12</v>
@@ -6923,7 +6912,7 @@
     <row r="26" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -6931,7 +6920,7 @@
     <row r="27" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -6939,17 +6928,17 @@
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C29" s="7">
         <v>-43847</v>
@@ -6961,7 +6950,7 @@
     <row r="30" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -6969,17 +6958,17 @@
     <row r="31" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C32" s="8">
         <v>28872</v>
@@ -6991,17 +6980,17 @@
     <row r="33" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C34" s="8">
         <v>2255</v>
@@ -7012,10 +7001,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C35" s="8">
         <v>4000</v>
@@ -7026,10 +7015,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>15</v>
@@ -7040,10 +7029,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C37" s="7">
         <v>-8720</v>

--- a/CA_Clayton_2022.xlsx
+++ b/CA_Clayton_2022.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aug05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D229CAB-7AFD-42D6-8DA8-E7B1F98CDA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="834" activeTab="1"/>
+    <workbookView xWindow="1980" yWindow="345" windowWidth="25035" windowHeight="14355" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement of Net Position" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,25 @@
     <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="5" r:id="rId6"/>
     <sheet name="Statement of Cash Flows" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="363">
   <si>
     <t>City of Clayton</t>
   </si>
@@ -503,9 +522,6 @@
   </si>
   <si>
     <t>Gain (loss) on disposal of fixed assets</t>
-  </si>
-  <si>
-    <t>acfr:GainLossOnSalesOfCapitalAssets</t>
   </si>
   <si>
     <t>Total general revenues and transfers</t>
@@ -1117,15 +1133,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$$-809]#,##0"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$$-809]#,##0"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1134,33 +1146,33 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1171,12 +1183,12 @@
     <font>
       <sz val="9"/>
       <name val="Book Antiqua"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1188,7 +1200,7 @@
       <sz val="11"/>
       <color rgb="FF1A1AA6"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1200,172 +1212,26 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1390,194 +1256,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1603,360 +1283,118 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="32" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="32" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="32" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="32" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1966,7 +1404,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1974,65 +1412,24 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2319,26 +1716,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="44.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="41.5428571428571" customWidth="1"/>
-    <col min="3" max="5" width="18.7238095238095" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:5">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="17"/>
       <c r="B1" s="54" t="s">
         <v>0</v>
@@ -2347,7 +1744,7 @@
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
     </row>
-    <row r="2" ht="15.75" spans="1:5">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="17"/>
       <c r="B2" s="54" t="s">
         <v>1</v>
@@ -2356,7 +1753,7 @@
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
     </row>
-    <row r="3" ht="15.75" spans="1:5">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="17"/>
       <c r="B3" s="54" t="s">
         <v>2</v>
@@ -2365,7 +1762,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
     </row>
-    <row r="4" ht="15.75" spans="1:5">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="17"/>
       <c r="B4" s="54" t="s">
         <v>3</v>
@@ -2374,7 +1771,7 @@
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
     </row>
-    <row r="5" ht="30" spans="1:5">
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +1786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:5">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="56" t="s">
         <v>8</v>
@@ -2398,7 +1795,7 @@
       <c r="D6" s="58"/>
       <c r="E6" s="56"/>
     </row>
-    <row r="7" ht="15" spans="1:5">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="56" t="s">
         <v>9</v>
@@ -2407,7 +1804,7 @@
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
     </row>
-    <row r="8" ht="15" spans="1:5">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
@@ -2424,7 +1821,7 @@
         <v>13441679</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:5">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
@@ -2441,7 +1838,7 @@
         <v>1133315</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:5">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="20" t="s">
         <v>16</v>
       </c>
@@ -2458,7 +1855,7 @@
         <v>25257</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:5">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="20" t="s">
         <v>18</v>
       </c>
@@ -2475,7 +1872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:5">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="20" t="s">
         <v>20</v>
       </c>
@@ -2492,7 +1889,7 @@
         <v>52578</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:5">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="20" t="s">
         <v>22</v>
       </c>
@@ -2509,7 +1906,7 @@
         <v>14652829</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:5">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="56" t="s">
         <v>24</v>
@@ -2518,7 +1915,7 @@
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
     </row>
-    <row r="15" ht="15" spans="1:5">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
@@ -2535,7 +1932,7 @@
         <v>3170453</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:5">
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="20" t="s">
         <v>27</v>
       </c>
@@ -2552,7 +1949,7 @@
         <v>3311550</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:5">
+    <row r="17" spans="1:5" ht="15">
       <c r="A17" s="20" t="s">
         <v>29</v>
       </c>
@@ -2569,7 +1966,7 @@
         <v>3301492</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:5">
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="20" t="s">
         <v>31</v>
       </c>
@@ -2586,7 +1983,7 @@
         <v>26823916</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:5">
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="20" t="s">
         <v>33</v>
       </c>
@@ -2603,7 +2000,7 @@
         <v>36607411</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:5">
+    <row r="20" spans="1:5" ht="15">
       <c r="A20" s="20" t="s">
         <v>35</v>
       </c>
@@ -2620,14 +2017,14 @@
         <v>51260240</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:5">
+    <row r="21" spans="1:5" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="56"/>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
     </row>
-    <row r="22" ht="15" spans="1:5">
+    <row r="22" spans="1:5" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="56" t="s">
         <v>37</v>
@@ -2636,7 +2033,7 @@
       <c r="D22" s="56"/>
       <c r="E22" s="56"/>
     </row>
-    <row r="23" ht="15" spans="1:5">
+    <row r="23" spans="1:5" ht="15">
       <c r="A23" s="20" t="s">
         <v>38</v>
       </c>
@@ -2653,7 +2050,7 @@
         <v>1285641</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:5">
+    <row r="24" spans="1:5" ht="15">
       <c r="A24" s="20" t="s">
         <v>40</v>
       </c>
@@ -2670,7 +2067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:5">
+    <row r="25" spans="1:5" ht="15">
       <c r="A25" s="20" t="s">
         <v>42</v>
       </c>
@@ -2687,14 +2084,14 @@
         <v>1285641</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:5">
+    <row r="26" spans="1:5" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="56"/>
       <c r="C26" s="60"/>
       <c r="D26" s="58"/>
       <c r="E26" s="60"/>
     </row>
-    <row r="27" ht="15" spans="1:5">
+    <row r="27" spans="1:5" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="56" t="s">
         <v>44</v>
@@ -2703,7 +2100,7 @@
       <c r="D27" s="56"/>
       <c r="E27" s="56"/>
     </row>
-    <row r="28" ht="15" spans="1:5">
+    <row r="28" spans="1:5" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="56" t="s">
         <v>45</v>
@@ -2712,7 +2109,7 @@
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
     </row>
-    <row r="29" ht="15" spans="1:5">
+    <row r="29" spans="1:5" ht="15">
       <c r="A29" s="20" t="s">
         <v>46</v>
       </c>
@@ -2729,7 +2126,7 @@
         <v>152578</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:5">
+    <row r="30" spans="1:5" ht="15">
       <c r="A30" s="20" t="s">
         <v>48</v>
       </c>
@@ -2746,7 +2143,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:5">
+    <row r="31" spans="1:5" ht="15">
       <c r="A31" s="20" t="s">
         <v>50</v>
       </c>
@@ -2763,7 +2160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:5">
+    <row r="32" spans="1:5" ht="15">
       <c r="A32" s="20" t="s">
         <v>52</v>
       </c>
@@ -2780,7 +2177,7 @@
         <v>332166</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:5">
+    <row r="33" spans="1:5" ht="15">
       <c r="A33" s="20" t="s">
         <v>54</v>
       </c>
@@ -2797,7 +2194,7 @@
         <v>83645</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:5">
+    <row r="34" spans="1:5" ht="15">
       <c r="A34" s="20" t="s">
         <v>56</v>
       </c>
@@ -2814,7 +2211,7 @@
         <v>74358</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:5">
+    <row r="35" spans="1:5" ht="15">
       <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
@@ -2831,7 +2228,7 @@
         <v>648284</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:5">
+    <row r="36" spans="1:5" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="56" t="s">
         <v>60</v>
@@ -2840,7 +2237,7 @@
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
     </row>
-    <row r="37" ht="15" spans="1:5">
+    <row r="37" spans="1:5" ht="15">
       <c r="A37" s="20" t="s">
         <v>61</v>
       </c>
@@ -2857,7 +2254,7 @@
         <v>83645</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:5">
+    <row r="38" spans="1:5" ht="15">
       <c r="A38" s="20" t="s">
         <v>63</v>
       </c>
@@ -2874,7 +2271,7 @@
         <v>578315</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:5">
+    <row r="39" spans="1:5" ht="15">
       <c r="A39" s="20" t="s">
         <v>65</v>
       </c>
@@ -2891,7 +2288,7 @@
         <v>2759739</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:5">
+    <row r="40" spans="1:5" ht="15">
       <c r="A40" s="20" t="s">
         <v>67</v>
       </c>
@@ -2908,7 +2305,7 @@
         <v>244640</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:5">
+    <row r="41" spans="1:5" ht="15">
       <c r="A41" s="20" t="s">
         <v>69</v>
       </c>
@@ -2925,7 +2322,7 @@
         <v>3666339</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:5">
+    <row r="42" spans="1:5" ht="15">
       <c r="A42" s="20" t="s">
         <v>71</v>
       </c>
@@ -2942,14 +2339,14 @@
         <v>4314623</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="1:5">
+    <row r="43" spans="1:5" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="56"/>
       <c r="C43" s="60"/>
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
     </row>
-    <row r="44" ht="15" spans="1:5">
+    <row r="44" spans="1:5" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="56" t="s">
         <v>73</v>
@@ -2958,7 +2355,7 @@
       <c r="D44" s="56"/>
       <c r="E44" s="56"/>
     </row>
-    <row r="45" ht="15" spans="1:5">
+    <row r="45" spans="1:5" ht="15">
       <c r="A45" s="20" t="s">
         <v>74</v>
       </c>
@@ -2975,7 +2372,7 @@
         <v>2471384</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:5">
+    <row r="46" spans="1:5" ht="15">
       <c r="A46" s="20" t="s">
         <v>76</v>
       </c>
@@ -2992,7 +2389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="1:5">
+    <row r="47" spans="1:5" ht="15">
       <c r="A47" s="20" t="s">
         <v>78</v>
       </c>
@@ -3009,14 +2406,14 @@
         <v>2471384</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="1:5">
+    <row r="48" spans="1:5" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="64"/>
       <c r="C48" s="64"/>
       <c r="D48" s="64"/>
       <c r="E48" s="64"/>
     </row>
-    <row r="49" ht="15" spans="1:5">
+    <row r="49" spans="1:5" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="56" t="s">
         <v>80</v>
@@ -3025,7 +2422,7 @@
       <c r="D49" s="56"/>
       <c r="E49" s="56"/>
     </row>
-    <row r="50" ht="15" spans="1:5">
+    <row r="50" spans="1:5" ht="15">
       <c r="A50" s="20" t="s">
         <v>81</v>
       </c>
@@ -3042,7 +2439,7 @@
         <v>30125408</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="1:5">
+    <row r="51" spans="1:5" ht="15">
       <c r="A51" s="20" t="s">
         <v>83</v>
       </c>
@@ -3059,7 +2456,7 @@
         <v>9890048</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="1:5">
+    <row r="52" spans="1:5" ht="15">
       <c r="A52" s="20" t="s">
         <v>85</v>
       </c>
@@ -3076,7 +2473,7 @@
         <v>5744418</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="1:5">
+    <row r="53" spans="1:5" ht="15">
       <c r="A53" s="20" t="s">
         <v>87</v>
       </c>
@@ -3093,23 +2490,23 @@
         <v>45759874</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="1:5">
+    <row r="54" spans="1:5" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="56"/>
       <c r="C54" s="59"/>
       <c r="D54" s="59"/>
       <c r="E54" s="59"/>
     </row>
-    <row r="55" ht="15" spans="1:5">
+    <row r="55" spans="1:5" ht="15">
       <c r="A55" s="17"/>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-    </row>
-    <row r="56" ht="15.75" spans="3:3">
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75">
       <c r="C56" s="66"/>
     </row>
   </sheetData>
@@ -3117,37 +2514,35 @@
     <mergeCell ref="B55:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="59.4571428571429" style="25" customWidth="1"/>
-    <col min="2" max="2" width="38.1809523809524" style="25" customWidth="1"/>
-    <col min="3" max="3" width="22.0857142857143" style="25" customWidth="1"/>
-    <col min="4" max="4" width="55.7238095238095" style="25" customWidth="1"/>
-    <col min="5" max="5" width="23.7238095238095" style="25" customWidth="1"/>
-    <col min="6" max="6" width="19.9047619047619" style="25" customWidth="1"/>
-    <col min="7" max="7" width="24.5428571428571" style="25" customWidth="1"/>
-    <col min="8" max="8" width="55.7238095238095" style="25" customWidth="1"/>
-    <col min="9" max="9" width="22.0857142857143" style="25" customWidth="1"/>
-    <col min="10" max="10" width="21.9047619047619" style="25" customWidth="1"/>
-    <col min="11" max="11" width="9.08571428571429" style="25" customWidth="1"/>
-    <col min="12" max="16384" width="9.18095238095238" style="25"/>
+    <col min="1" max="1" width="59.42578125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="55.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="25" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:8">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" s="2"/>
       <c r="B1" s="26" t="s">
         <v>0</v>
@@ -3155,7 +2550,7 @@
       <c r="D1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" ht="15" spans="1:8">
+    <row r="2" spans="1:11" ht="15">
       <c r="A2" s="2"/>
       <c r="B2" s="26" t="s">
         <v>1</v>
@@ -3163,7 +2558,7 @@
       <c r="D2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" ht="15" spans="1:8">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="2"/>
       <c r="B3" s="26" t="s">
         <v>90</v>
@@ -3171,7 +2566,7 @@
       <c r="D3" s="14"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" ht="15" spans="1:10">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" s="2"/>
       <c r="B4" s="27" t="s">
         <v>91</v>
@@ -3185,7 +2580,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" ht="15" spans="1:11">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="2"/>
       <c r="B5" s="30"/>
       <c r="D5" s="31"/>
@@ -3203,7 +2598,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:11">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="2"/>
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
@@ -3215,7 +2610,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" ht="24" spans="1:11">
+    <row r="7" spans="1:11" ht="27">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -3250,7 +2645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:8">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" s="2"/>
       <c r="B8" s="41" t="s">
         <v>101</v>
@@ -3258,7 +2653,7 @@
       <c r="D8" s="14"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" ht="22.5" spans="1:8">
+    <row r="9" spans="1:11" ht="23.25">
       <c r="A9" s="2"/>
       <c r="B9" s="42" t="s">
         <v>5</v>
@@ -3278,7 +2673,7 @@
       </c>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" ht="15" spans="1:11">
+    <row r="10" spans="1:11" ht="15">
       <c r="A10" s="2" t="s">
         <v>105</v>
       </c>
@@ -3313,7 +2708,7 @@
         <v>-2177614</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:11">
+    <row r="11" spans="1:11" ht="15">
       <c r="A11" s="2" t="s">
         <v>109</v>
       </c>
@@ -3349,7 +2744,7 @@
         <v>-2291064</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:11">
+    <row r="12" spans="1:11" ht="15">
       <c r="A12" s="2" t="s">
         <v>112</v>
       </c>
@@ -3384,7 +2779,7 @@
         <v>210869</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:11">
+    <row r="13" spans="1:11" ht="15">
       <c r="A13" s="2" t="s">
         <v>116</v>
       </c>
@@ -3420,7 +2815,7 @@
         <v>-138011</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:11">
+    <row r="14" spans="1:11" ht="15">
       <c r="A14" s="2" t="s">
         <v>119</v>
       </c>
@@ -3456,7 +2851,7 @@
         <v>-686826</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:11">
+    <row r="15" spans="1:11" ht="15">
       <c r="A15" s="2" t="s">
         <v>122</v>
       </c>
@@ -3491,7 +2886,7 @@
         <v>-5082646</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:11">
+    <row r="16" spans="1:11" ht="15">
       <c r="A16" s="2"/>
       <c r="B16" s="42" t="s">
         <v>126</v>
@@ -3511,7 +2906,7 @@
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
     </row>
-    <row r="17" ht="43" customHeight="1" spans="1:11">
+    <row r="17" spans="1:11" ht="42.95" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="42"/>
       <c r="C17" s="44" t="s">
@@ -3532,7 +2927,7 @@
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
     </row>
-    <row r="18" ht="15" spans="1:11">
+    <row r="18" spans="1:11" ht="15">
       <c r="A18" s="2" t="s">
         <v>122</v>
       </c>
@@ -3567,7 +2962,7 @@
         <v>-43847</v>
       </c>
     </row>
-    <row r="19" ht="22.5" spans="1:11">
+    <row r="19" spans="1:11" ht="23.25">
       <c r="A19" s="2"/>
       <c r="B19" s="42"/>
       <c r="C19" s="43" t="s">
@@ -3588,7 +2983,7 @@
       <c r="J19" s="47"/>
       <c r="K19" s="47"/>
     </row>
-    <row r="20" ht="15" spans="1:11">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="2" t="s">
         <v>122</v>
       </c>
@@ -3623,7 +3018,7 @@
         <v>-43847</v>
       </c>
     </row>
-    <row r="21" ht="22.5" spans="1:11">
+    <row r="21" spans="1:11" ht="24">
       <c r="A21" s="2"/>
       <c r="B21" s="48"/>
       <c r="C21" s="43" t="s">
@@ -3644,7 +3039,7 @@
       <c r="J21" s="47"/>
       <c r="K21" s="47"/>
     </row>
-    <row r="22" ht="15" spans="1:11">
+    <row r="22" spans="1:11" ht="15">
       <c r="A22" s="2" t="s">
         <v>122</v>
       </c>
@@ -3679,7 +3074,7 @@
         <v>-5126493</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:11">
+    <row r="23" spans="1:11" ht="15">
       <c r="A23" s="2"/>
       <c r="B23" s="42"/>
       <c r="C23" s="45"/>
@@ -3692,36 +3087,36 @@
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
     </row>
-    <row r="24" ht="15" spans="1:8">
+    <row r="24" spans="1:11" ht="15.75">
       <c r="A24" s="2"/>
       <c r="D24" s="50"/>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="48"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="34"/>
       <c r="H24" s="50"/>
     </row>
-    <row r="25" ht="15" spans="1:11">
+    <row r="25" spans="1:11" ht="15">
       <c r="A25" s="2"/>
       <c r="D25" s="50"/>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="34"/>
       <c r="H25" s="50"/>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
     </row>
-    <row r="26" ht="15" spans="1:11">
+    <row r="26" spans="1:11" ht="15">
       <c r="A26" s="2"/>
       <c r="D26" s="51"/>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="34"/>
       <c r="H26" s="51" t="s">
         <v>144</v>
@@ -3736,13 +3131,13 @@
         <v>2846766</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:11">
+    <row r="27" spans="1:11" ht="15">
       <c r="A27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="34"/>
       <c r="H27" s="2" t="s">
         <v>146</v>
@@ -3757,13 +3152,13 @@
         <v>1348657</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:11">
+    <row r="28" spans="1:11" ht="15">
       <c r="A28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="42"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="34"/>
       <c r="H28" s="2" t="s">
         <v>148</v>
@@ -3778,13 +3173,13 @@
         <v>563908</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:11">
+    <row r="29" spans="1:11" ht="15">
       <c r="A29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="34"/>
       <c r="H29" s="2" t="s">
         <v>150</v>
@@ -3799,13 +3194,13 @@
         <v>162881</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:11">
+    <row r="30" spans="1:11" ht="15.75">
       <c r="A30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="F30" s="48"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="34"/>
       <c r="H30" s="2"/>
       <c r="I30" s="47">
@@ -3818,13 +3213,13 @@
         <v>4922212</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:11">
+    <row r="31" spans="1:11" ht="15">
       <c r="A31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="F31" s="42"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="34"/>
       <c r="H31" s="2" t="s">
         <v>153</v>
@@ -3839,13 +3234,13 @@
         <v>587740</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:11">
+    <row r="32" spans="1:11" ht="15">
       <c r="A32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="69"/>
       <c r="G32" s="34"/>
       <c r="H32" s="2" t="s">
         <v>155</v>
@@ -3860,13 +3255,13 @@
         <v>174443</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:11">
+    <row r="33" spans="1:11" ht="15">
       <c r="A33" s="2"/>
       <c r="D33" s="51"/>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="69"/>
       <c r="G33" s="34"/>
       <c r="H33" s="51" t="s">
         <v>157</v>
@@ -3881,13 +3276,13 @@
         <v>-281502</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:11">
+    <row r="34" spans="1:11" ht="15">
       <c r="A34" s="2"/>
       <c r="D34" s="51"/>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="69"/>
       <c r="G34" s="34"/>
       <c r="H34" s="51" t="s">
         <v>159</v>
@@ -3902,16 +3297,16 @@
         <v>54512</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:11">
+    <row r="35" spans="1:11" ht="15">
       <c r="A35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="34"/>
-      <c r="H35" s="2" t="s">
-        <v>161</v>
+      <c r="H35" s="51" t="s">
+        <v>305</v>
       </c>
       <c r="I35" s="47">
         <v>6958</v>
@@ -3923,16 +3318,16 @@
         <v>6958</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:11">
+    <row r="36" spans="1:11" ht="15.75">
       <c r="A36" s="2"/>
       <c r="D36" s="51"/>
-      <c r="E36" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" s="48"/>
+      <c r="E36" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="68"/>
       <c r="G36" s="34"/>
       <c r="H36" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I36" s="47">
         <v>5464363</v>
@@ -3944,16 +3339,16 @@
         <v>5464363</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:11">
+    <row r="37" spans="1:11" ht="15.75">
       <c r="A37" s="2"/>
       <c r="D37" s="51"/>
-      <c r="E37" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="48"/>
+      <c r="E37" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="68"/>
       <c r="G37" s="34"/>
       <c r="H37" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I37" s="47">
         <v>381717</v>
@@ -3965,16 +3360,16 @@
         <v>337870</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:11">
+    <row r="38" spans="1:11" ht="15.75">
       <c r="A38" s="2"/>
       <c r="D38" s="51"/>
-      <c r="E38" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" s="48"/>
+      <c r="E38" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="68"/>
       <c r="G38" s="34"/>
       <c r="H38" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I38" s="47">
         <v>44498018</v>
@@ -3986,13 +3381,13 @@
         <v>45422004</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:11">
+    <row r="39" spans="1:11" ht="15.75">
       <c r="A39" s="2"/>
       <c r="D39" s="51"/>
-      <c r="E39" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" s="48"/>
+      <c r="E39" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" s="68"/>
       <c r="G39" s="34"/>
       <c r="H39" s="51" t="s">
         <v>87</v>
@@ -4007,17 +3402,17 @@
         <v>45759874</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:11">
+    <row r="40" spans="1:11" ht="15.75">
       <c r="A40" s="2"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
       <c r="H40" s="14"/>
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="53"/>
     </row>
-    <row r="41" ht="15" spans="1:8">
+    <row r="41" spans="1:11" ht="15">
       <c r="A41" s="2"/>
       <c r="B41" s="52" t="s">
         <v>89</v>
@@ -4027,126 +3422,124 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="82" style="16" customWidth="1"/>
-    <col min="2" max="2" width="38.8190476190476" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.7238095238095" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.4571428571429" style="16" customWidth="1"/>
-    <col min="5" max="5" width="14.2666666666667" style="16" customWidth="1"/>
-    <col min="6" max="7" width="13.4571428571429" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.4571428571429" style="16" customWidth="1"/>
-    <col min="9" max="9" width="11.1809523809524" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9.18095238095238" style="16"/>
+    <col min="2" max="2" width="38.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="16" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" ht="15" spans="1:6">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" ht="15" spans="1:6">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" ht="15" spans="1:6">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" ht="15" spans="1:9">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" ht="45" spans="1:9">
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:9">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4156,9 +3549,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" ht="15" spans="1:9">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>143</v>
@@ -4185,12 +3578,12 @@
         <v>2846766</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:9">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
@@ -4214,12 +3607,12 @@
         <v>111400</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:9">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
@@ -4243,9 +3636,9 @@
         <v>1647112</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:9">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>147</v>
@@ -4272,12 +3665,12 @@
         <v>563908</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:9">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C12" s="8">
         <v>162881</v>
@@ -4301,12 +3694,12 @@
         <v>162881</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:9">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C13" s="8">
         <v>114026</v>
@@ -4330,12 +3723,12 @@
         <v>254352</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:9">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="C14" s="8">
         <v>151409</v>
@@ -4359,12 +3752,12 @@
         <v>151409</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:9">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="C15" s="8">
         <v>135233</v>
@@ -4388,12 +3781,12 @@
         <v>2772298</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:9">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -4409,12 +3802,12 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" ht="15" spans="1:9">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="C17" s="8">
         <v>174443</v>
@@ -4438,9 +3831,9 @@
         <v>174443</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:9">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>152</v>
@@ -4467,12 +3860,12 @@
         <v>587740</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:9">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="C19" s="8">
         <v>305645</v>
@@ -4496,12 +3889,12 @@
         <v>305645</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:9">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="C20" s="8">
         <v>-185018</v>
@@ -4525,12 +3918,12 @@
         <v>-324916</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:9">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C21" s="8">
         <v>40844</v>
@@ -4554,12 +3947,12 @@
         <v>41492</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:9">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="C22" s="8">
         <v>4897877</v>
@@ -4583,7 +3976,7 @@
         <v>9294530</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:9">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="1"/>
       <c r="C23" s="8"/>
@@ -4594,10 +3987,10 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" ht="15" spans="1:9">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -4607,10 +4000,10 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" ht="15" spans="1:9">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -4620,9 +4013,9 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" ht="15" spans="1:9">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>106</v>
@@ -4649,9 +4042,9 @@
         <v>2697067</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:9">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>110</v>
@@ -4678,9 +4071,9 @@
         <v>2814860</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:9">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>113</v>
@@ -4707,9 +4100,9 @@
         <v>2141455</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:9">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>117</v>
@@ -4736,9 +4129,9 @@
         <v>299175</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:9">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>120</v>
@@ -4765,12 +4158,12 @@
         <v>477400</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:9">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C31" s="8">
         <v>22168</v>
@@ -4794,12 +4187,12 @@
         <v>1102349</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:9">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="C32" s="8">
         <v>6246094</v>
@@ -4823,12 +4216,12 @@
         <v>9532306</v>
       </c>
     </row>
-    <row r="33" ht="32.25" customHeight="1" spans="1:9">
+    <row r="33" spans="1:9" ht="32.25" customHeight="1">
       <c r="A33" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="C33" s="8">
         <v>-1348217</v>
@@ -4852,10 +4245,10 @@
         <v>-237776</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:9">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -4865,12 +4258,12 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" ht="15" spans="1:9">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>15</v>
@@ -4894,12 +4287,12 @@
         <v>58091</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:9">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="C36" s="8">
         <v>1597681</v>
@@ -4923,12 +4316,12 @@
         <v>3251504</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:9">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>15</v>
@@ -4952,12 +4345,12 @@
         <v>-3251504</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:9">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="C38" s="8">
         <v>1597681</v>
@@ -4981,12 +4374,12 @@
         <v>58091</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:9">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="C39" s="8">
         <v>249464</v>
@@ -5002,10 +4395,10 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" ht="15" spans="1:9">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -5023,12 +4416,12 @@
         <v>-179685</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:9">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="C41" s="8">
         <v>6163893</v>
@@ -5052,12 +4445,12 @@
         <v>17352592</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:9">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C42" s="7">
         <v>6413357</v>
@@ -5081,7 +4474,7 @@
         <v>17172907</v>
       </c>
     </row>
-    <row r="43" spans="3:9">
+    <row r="43" spans="1:9">
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
@@ -5089,116 +4482,114 @@
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" ht="15" spans="2:2">
+    <row r="44" spans="1:9" ht="15">
       <c r="B44" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" ht="15.75" spans="3:3">
+    <row r="45" spans="1:9" ht="15.75">
       <c r="C45" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="75.2666666666667" style="16" customWidth="1"/>
+    <col min="1" max="1" width="75.28515625" style="16" customWidth="1"/>
     <col min="2" max="2" width="38" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.2666666666667" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.7238095238095" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.8190476190476" style="16" customWidth="1"/>
-    <col min="6" max="6" width="16.5428571428571" style="16" customWidth="1"/>
-    <col min="7" max="7" width="15.4571428571429" style="16" customWidth="1"/>
-    <col min="8" max="8" width="14.8190476190476" style="16" customWidth="1"/>
-    <col min="9" max="9" width="12.8190476190476" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9.18095238095238" style="16"/>
+    <col min="3" max="3" width="14.28515625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:2">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:6">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" ht="15" spans="1:6">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" ht="15" spans="1:6">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" ht="15" spans="1:7">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" ht="45" spans="1:9">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:2">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:9">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -5225,12 +4616,12 @@
         <v>12981238</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:9">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C9" s="8">
         <v>646294</v>
@@ -5252,9 +4643,9 @@
         <v>1133315</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:9">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -5279,9 +4670,9 @@
         <v>25257</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:9">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>26</v>
@@ -5306,9 +4697,9 @@
         <v>3170453</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:9">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
@@ -5333,12 +4724,12 @@
         <v>3311550</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:9">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="C13" s="8">
         <v>52578</v>
@@ -5360,12 +4751,12 @@
         <v>52578</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:9">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="C14" s="8">
         <v>120893</v>
@@ -5387,12 +4778,12 @@
         <v>120893</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:9">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>15</v>
@@ -5410,9 +4801,9 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" ht="15" spans="1:9">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>36</v>
@@ -5439,7 +4830,7 @@
         <v>20795284</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:9">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="1"/>
       <c r="C17" s="7"/>
@@ -5450,10 +4841,10 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" ht="15" spans="1:9">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -5465,10 +4856,10 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" ht="15" spans="1:9">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -5480,10 +4871,10 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" ht="15" spans="1:9">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -5495,9 +4886,9 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" ht="15" spans="1:9">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>47</v>
@@ -5524,12 +4915,12 @@
         <v>149592</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:9">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C22" s="8">
         <v>71658</v>
@@ -5553,9 +4944,9 @@
         <v>74358</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:9">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>51</v>
@@ -5582,12 +4973,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:9">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="C24" s="8">
         <v>83645</v>
@@ -5611,9 +5002,9 @@
         <v>83645</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:9">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>53</v>
@@ -5640,9 +5031,9 @@
         <v>332166</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:9">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>72</v>
@@ -5669,7 +5060,7 @@
         <v>639798</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:9">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="1"/>
       <c r="C27" s="8"/>
@@ -5680,10 +5071,10 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" ht="15" spans="1:9">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -5695,12 +5086,12 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" ht="15" spans="1:9">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C29" s="8">
         <v>260379</v>
@@ -5724,9 +5115,9 @@
         <v>2982579</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:9">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>79</v>
@@ -5753,7 +5144,7 @@
         <v>2982579</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:9">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="20"/>
       <c r="B31" s="1"/>
       <c r="C31" s="8"/>
@@ -5764,10 +5155,10 @@
       <c r="H31" s="6"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" ht="15" spans="1:9">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -5779,12 +5170,12 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" ht="15" spans="1:9">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C33" s="8">
         <v>173471</v>
@@ -5808,12 +5199,12 @@
         <v>173471</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:9">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>15</v>
@@ -5835,12 +5226,12 @@
         <v>6719595</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:9">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="C35" s="8">
         <v>495019</v>
@@ -5862,12 +5253,12 @@
         <v>1204821</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:9">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>15</v>
@@ -5889,12 +5280,12 @@
         <v>3330153</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:9">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="C37" s="8">
         <v>5744867</v>
@@ -5916,12 +5307,12 @@
         <v>5744867</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:9">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C38" s="8">
         <v>6413357</v>
@@ -5943,12 +5334,12 @@
         <v>17172907</v>
       </c>
     </row>
-    <row r="39" ht="30" spans="1:9">
+    <row r="39" spans="1:9" ht="30">
       <c r="A39" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="C39" s="7">
         <v>6830902</v>
@@ -5970,7 +5361,7 @@
         <v>20795284</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:9">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="1"/>
       <c r="C40" s="22"/>
@@ -5980,7 +5371,7 @@
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" ht="15" spans="1:2">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17"/>
       <c r="B41" s="1" t="s">
         <v>89</v>
@@ -5988,61 +5379,59 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.4571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.1809523809524" style="1" customWidth="1"/>
-    <col min="3" max="4" width="19.7238095238095" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.18095238095238" style="1"/>
+    <col min="1" max="1" width="44.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="45" spans="1:4">
+    <row r="5" spans="1:4" ht="45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6056,7 +5445,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -6080,17 +5469,17 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="C10" s="8">
         <v>167738</v>
@@ -6104,7 +5493,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" s="8">
         <v>841465</v>
@@ -6138,7 +5527,7 @@
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -6162,7 +5551,7 @@
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -6187,10 +5576,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="C18" s="8">
         <v>120893</v>
@@ -6263,10 +5652,10 @@
         <v>1000736</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="12" t="s">
         <v>89</v>
@@ -6274,77 +5663,75 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.5428571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.2666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.8190476190476" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.18095238095238" style="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" ht="60" spans="1:4">
+    <row r="5" spans="1:4" ht="60">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C7" s="7">
         <v>16847</v>
@@ -6355,10 +5742,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="C8" s="8">
         <v>16847</v>
@@ -6370,17 +5757,17 @@
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="C10" s="8">
         <v>4833</v>
@@ -6394,7 +5781,7 @@
         <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C11" s="8">
         <v>26989</v>
@@ -6405,10 +5792,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="C12" s="8">
         <v>28872</v>
@@ -6419,10 +5806,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="C13" s="8">
         <v>60694</v>
@@ -6433,10 +5820,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="C14" s="8">
         <v>-43847</v>
@@ -6448,17 +5835,17 @@
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -6472,7 +5859,7 @@
         <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>15</v>
@@ -6483,10 +5870,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>15</v>
@@ -6495,12 +5882,12 @@
         <v>-7717</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="C19" s="15">
         <v>-43847</v>
@@ -6511,10 +5898,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>15</v>
@@ -6525,10 +5912,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>15</v>
@@ -6539,10 +5926,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C22" s="8">
         <v>-43847</v>
@@ -6554,17 +5941,17 @@
     <row r="23" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C24" s="8">
         <v>923986</v>
@@ -6578,7 +5965,7 @@
         <v>87</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C25" s="7">
         <v>880139</v>
@@ -6587,10 +5974,10 @@
         <v>1000736</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:4">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="12" t="s">
         <v>89</v>
@@ -6599,80 +5986,78 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.7238095238095" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.5428571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.4571428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9.18095238095238" style="1"/>
-    <col min="8" max="8" width="21.4571428571429" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.18095238095238" style="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" ht="60" spans="1:5">
+    <row r="5" spans="1:5" ht="60">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="C7" s="7">
         <v>20847</v>
@@ -6681,12 +6066,12 @@
         <v>111900</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="C8" s="8">
         <v>-24734</v>
@@ -6695,12 +6080,12 @@
         <v>-4001</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="C9" s="8">
         <v>-4833</v>
@@ -6709,12 +6094,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
@@ -6723,12 +6108,12 @@
         <v>-4428</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="C11" s="8">
         <v>-8720</v>
@@ -6737,20 +6122,20 @@
         <v>103471</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="C13" s="8">
         <v>8720</v>
@@ -6759,12 +6144,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="C14" s="8">
         <v>8720</v>
@@ -6773,20 +6158,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -6797,10 +6182,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>15</v>
@@ -6811,10 +6196,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>15</v>
@@ -6826,17 +6211,17 @@
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>15</v>
@@ -6847,10 +6232,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>15</v>
@@ -6861,10 +6246,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>15</v>
@@ -6876,17 +6261,17 @@
     <row r="23" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>15</v>
@@ -6897,10 +6282,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>12</v>
@@ -6912,7 +6297,7 @@
     <row r="26" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -6920,7 +6305,7 @@
     <row r="27" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -6928,17 +6313,17 @@
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C29" s="7">
         <v>-43847</v>
@@ -6950,7 +6335,7 @@
     <row r="30" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -6958,17 +6343,17 @@
     <row r="31" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="C32" s="8">
         <v>28872</v>
@@ -6980,17 +6365,17 @@
     <row r="33" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="C34" s="8">
         <v>2255</v>
@@ -7001,10 +6386,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="C35" s="8">
         <v>4000</v>
@@ -7015,10 +6400,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>15</v>
@@ -7029,10 +6414,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="C37" s="7">
         <v>-8720</v>
@@ -7041,10 +6426,10 @@
         <v>103471</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:4">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" s="2"/>
       <c r="B39" s="12" t="s">
         <v>89</v>
@@ -7053,6 +6438,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/CA_Clayton_2022.xlsx
+++ b/CA_Clayton_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aug05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D229CAB-7AFD-42D6-8DA8-E7B1F98CDA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51AE399-1497-4B33-BD11-DBDC67685C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="345" windowWidth="25035" windowHeight="14355" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1080" windowWidth="25200" windowHeight="14355" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement of Net Position" sheetId="1" r:id="rId1"/>
@@ -1288,7 +1288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1417,6 +1417,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2520,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2580,7 +2581,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11" ht="23.25">
       <c r="A5" s="2"/>
       <c r="B5" s="30"/>
       <c r="D5" s="31"/>
@@ -2588,13 +2589,13 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="31"/>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="44" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2655,10 +2656,8 @@
     </row>
     <row r="9" spans="1:11" ht="23.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="43" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="44" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="14"/>
@@ -2674,771 +2673,779 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="15">
-      <c r="A10" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="45">
-        <v>2629048</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="45">
-        <v>437626</v>
-      </c>
-      <c r="F10" s="45">
-        <v>13808</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="45">
-        <v>-2177614</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="45">
-        <v>-2177614</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="A11" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="47">
-        <v>2736817</v>
-      </c>
-      <c r="D11" s="46" t="str">
-        <f t="shared" ref="D11:D14" si="0">SUBSTITUTE($A11,"Expenses","Revenue")</f>
-        <v>acfr:RevenueForPublicSafetyServices</v>
-      </c>
-      <c r="E11" s="47">
-        <v>48292</v>
-      </c>
-      <c r="F11" s="47">
-        <v>397461</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="45">
+        <v>2629048</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="45">
+        <v>437626</v>
+      </c>
+      <c r="F11" s="45">
+        <v>13808</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="47">
-        <v>-2291064</v>
+        <v>108</v>
+      </c>
+      <c r="I11" s="45">
+        <v>-2177614</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="47">
-        <v>-2291064</v>
+        <v>12</v>
+      </c>
+      <c r="K11" s="45">
+        <v>-2177614</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C12" s="47">
-        <v>2509096</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>114</v>
+        <v>2736817</v>
+      </c>
+      <c r="D12" s="46" t="str">
+        <f t="shared" ref="D12:D15" si="0">SUBSTITUTE($A12,"Expenses","Revenue")</f>
+        <v>acfr:RevenueForPublicSafetyServices</v>
       </c>
       <c r="E12" s="47">
-        <v>331218</v>
+        <v>48292</v>
       </c>
       <c r="F12" s="47">
-        <v>2344113</v>
-      </c>
-      <c r="G12" s="47">
-        <v>44634</v>
+        <v>397461</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>15</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I12" s="47">
-        <v>210869</v>
+        <v>-2291064</v>
       </c>
       <c r="J12" s="36" t="s">
         <v>15</v>
       </c>
       <c r="K12" s="47">
-        <v>210869</v>
+        <v>-2291064</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="A13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="47">
+        <v>2509096</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="47">
+        <v>331218</v>
+      </c>
+      <c r="F13" s="47">
+        <v>2344113</v>
+      </c>
+      <c r="G13" s="47">
+        <v>44634</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="47">
+        <v>210869</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="47">
+        <v>210869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15">
+      <c r="A14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B14" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C14" s="47">
         <v>356450</v>
       </c>
-      <c r="D13" s="46" t="str">
+      <c r="D14" s="46" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueForCommunityAndEconomicDevelopmentServices</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E14" s="47">
         <v>142299</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="47">
+      <c r="F14" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="47">
         <v>76140</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H14" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I14" s="47">
         <v>-138011</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="47">
+      <c r="J14" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="47">
         <v>-138011</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:11" ht="15">
+      <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B15" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C15" s="47">
         <v>729729</v>
       </c>
-      <c r="D14" s="46" t="str">
+      <c r="D15" s="46" t="str">
         <f t="shared" si="0"/>
         <v>acfr:RevenueForParksAndRecreation</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E15" s="47">
         <v>42903</v>
       </c>
-      <c r="F14" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="46" t="s">
+      <c r="F15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I15" s="47">
         <v>-686826</v>
       </c>
-      <c r="J14" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="47">
+      <c r="J15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="47">
         <v>-686826</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:11" ht="15">
+      <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B16" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C16" s="47">
         <v>8961140</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D16" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E16" s="47">
         <v>1002338</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F16" s="47">
         <v>2755382</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G16" s="47">
         <v>120774</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H16" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I16" s="47">
         <v>-5082646</v>
       </c>
-      <c r="J15" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="47">
+      <c r="J16" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="47">
         <v>-5082646</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="42" t="s">
+    <row r="17" spans="1:11" ht="15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="46" t="str">
-        <f t="shared" ref="D16" si="1">SUBSTITUTE($A16,"Expenses","Revenue")</f>
+      <c r="C17" s="34"/>
+      <c r="D17" s="46" t="str">
+        <f t="shared" ref="D17" si="1">SUBSTITUTE($A17,"Expenses","Revenue")</f>
         <v/>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="46" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-    </row>
-    <row r="17" spans="1:11" ht="42.95" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="46"/>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
     </row>
-    <row r="18" spans="1:11" ht="15">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:11" ht="42.95" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="46"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="1:11" ht="15">
+      <c r="A19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B19" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C19" s="47">
         <v>60694</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D19" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E19" s="47">
         <v>16847</v>
       </c>
-      <c r="F18" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="46" t="s">
+      <c r="F19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="47">
+      <c r="I19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="47">
         <v>-43847</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K19" s="47">
         <v>-43847</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="23.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43" t="s">
+    <row r="20" spans="1:11" ht="23.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="44" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F20" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G20" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="2" t="s">
+      <c r="H20" s="46"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B21" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C21" s="47">
         <v>60694</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D21" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E21" s="47">
         <v>16847</v>
       </c>
-      <c r="F20" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="46" t="s">
+      <c r="F21" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="47">
+      <c r="I21" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="47">
         <v>-43847</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K21" s="47">
         <v>-43847</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="24">
-      <c r="A21" s="2"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="43" t="s">
+    <row r="22" spans="1:11" ht="24">
+      <c r="A22" s="2"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="44" t="s">
+      <c r="D22" s="46"/>
+      <c r="E22" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F22" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G22" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-    </row>
-    <row r="22" spans="1:11" ht="15">
-      <c r="A22" s="2" t="s">
+      <c r="H22" s="46"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+    </row>
+    <row r="23" spans="1:11" ht="15">
+      <c r="A23" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B23" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C23" s="45">
         <v>9021834</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D23" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E23" s="45">
         <v>1019185</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F23" s="45">
         <v>2755382</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G23" s="45">
         <v>120774</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H23" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I23" s="47">
         <v>-5082646</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J23" s="47">
         <v>-43847</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K23" s="47">
         <v>-5126493</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75">
+    <row r="24" spans="1:11" ht="15">
       <c r="A24" s="2"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="50"/>
-    </row>
-    <row r="25" spans="1:11" ht="15">
+      <c r="B24" s="42"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="2"/>
       <c r="D25" s="50"/>
-      <c r="E25" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="69"/>
+      <c r="E25" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="68"/>
       <c r="G25" s="34"/>
       <c r="H25" s="50"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
     </row>
     <row r="26" spans="1:11" ht="15">
       <c r="A26" s="2"/>
-      <c r="D26" s="51"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" s="69"/>
       <c r="G26" s="34"/>
-      <c r="H26" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="I26" s="47">
-        <v>2846766</v>
-      </c>
-      <c r="J26" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="47">
-        <v>2846766</v>
-      </c>
+      <c r="H26" s="50"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="1:11" ht="15">
       <c r="A27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F27" s="69"/>
       <c r="G27" s="34"/>
-      <c r="H27" s="2" t="s">
-        <v>146</v>
+      <c r="H27" s="51" t="s">
+        <v>144</v>
       </c>
       <c r="I27" s="47">
-        <v>1348657</v>
+        <v>2846766</v>
       </c>
       <c r="J27" s="36" t="s">
         <v>15</v>
       </c>
       <c r="K27" s="47">
-        <v>1348657</v>
+        <v>2846766</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15">
       <c r="A28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F28" s="69"/>
       <c r="G28" s="34"/>
       <c r="H28" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I28" s="47">
-        <v>563908</v>
+        <v>1348657</v>
       </c>
       <c r="J28" s="36" t="s">
         <v>15</v>
       </c>
       <c r="K28" s="47">
-        <v>563908</v>
+        <v>1348657</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15">
       <c r="A29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F29" s="69"/>
       <c r="G29" s="34"/>
       <c r="H29" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I29" s="47">
-        <v>162881</v>
+        <v>563908</v>
       </c>
       <c r="J29" s="36" t="s">
         <v>15</v>
       </c>
       <c r="K29" s="47">
-        <v>162881</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75">
+        <v>563908</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15">
       <c r="A30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="68"/>
+      <c r="E30" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="69"/>
       <c r="G30" s="34"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="I30" s="47">
-        <v>4922212</v>
+        <v>162881</v>
       </c>
       <c r="J30" s="36" t="s">
         <v>15</v>
       </c>
       <c r="K30" s="47">
-        <v>4922212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15">
+        <v>162881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75">
       <c r="A31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="69"/>
+      <c r="E31" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="68"/>
       <c r="G31" s="34"/>
-      <c r="H31" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="H31" s="2"/>
       <c r="I31" s="47">
-        <v>587740</v>
+        <v>4922212</v>
       </c>
       <c r="J31" s="36" t="s">
         <v>15</v>
       </c>
       <c r="K31" s="47">
-        <v>587740</v>
+        <v>4922212</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15">
       <c r="A32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F32" s="69"/>
       <c r="G32" s="34"/>
       <c r="H32" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I32" s="47">
-        <v>174443</v>
+        <v>587740</v>
       </c>
       <c r="J32" s="36" t="s">
         <v>15</v>
       </c>
       <c r="K32" s="47">
-        <v>174443</v>
+        <v>587740</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15">
       <c r="A33" s="2"/>
-      <c r="D33" s="51"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F33" s="69"/>
       <c r="G33" s="34"/>
-      <c r="H33" s="51" t="s">
-        <v>157</v>
+      <c r="H33" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="I33" s="47">
-        <v>-281502</v>
+        <v>174443</v>
       </c>
       <c r="J33" s="36" t="s">
         <v>15</v>
       </c>
       <c r="K33" s="47">
-        <v>-281502</v>
+        <v>174443</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15">
       <c r="A34" s="2"/>
       <c r="D34" s="51"/>
       <c r="E34" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F34" s="69"/>
       <c r="G34" s="34"/>
       <c r="H34" s="51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I34" s="47">
-        <v>54512</v>
+        <v>-281502</v>
       </c>
       <c r="J34" s="36" t="s">
         <v>15</v>
       </c>
       <c r="K34" s="47">
-        <v>54512</v>
+        <v>-281502</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15">
       <c r="A35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F35" s="69"/>
       <c r="G35" s="34"/>
       <c r="H35" s="51" t="s">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="I35" s="47">
-        <v>6958</v>
+        <v>54512</v>
       </c>
       <c r="J35" s="36" t="s">
         <v>15</v>
       </c>
       <c r="K35" s="47">
-        <v>6958</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75">
+        <v>54512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15">
       <c r="A36" s="2"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="68"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="69"/>
       <c r="G36" s="34"/>
       <c r="H36" s="51" t="s">
-        <v>162</v>
+        <v>305</v>
       </c>
       <c r="I36" s="47">
-        <v>5464363</v>
+        <v>6958</v>
       </c>
       <c r="J36" s="36" t="s">
         <v>15</v>
       </c>
       <c r="K36" s="47">
-        <v>5464363</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75">
       <c r="A37" s="2"/>
       <c r="D37" s="51"/>
       <c r="E37" s="68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F37" s="68"/>
       <c r="G37" s="34"/>
       <c r="H37" s="51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I37" s="47">
-        <v>381717</v>
-      </c>
-      <c r="J37" s="47">
-        <v>-43847</v>
+        <v>5464363</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>15</v>
       </c>
       <c r="K37" s="47">
-        <v>337870</v>
+        <v>5464363</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75">
       <c r="A38" s="2"/>
       <c r="D38" s="51"/>
       <c r="E38" s="68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F38" s="68"/>
       <c r="G38" s="34"/>
       <c r="H38" s="51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I38" s="47">
-        <v>44498018</v>
+        <v>381717</v>
       </c>
       <c r="J38" s="47">
-        <v>923986</v>
+        <v>-43847</v>
       </c>
       <c r="K38" s="47">
-        <v>45422004</v>
+        <v>337870</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75">
       <c r="A39" s="2"/>
       <c r="D39" s="51"/>
       <c r="E39" s="68" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F39" s="68"/>
       <c r="G39" s="34"/>
       <c r="H39" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="I39" s="45">
-        <v>44879735</v>
-      </c>
-      <c r="J39" s="45">
-        <v>880139</v>
-      </c>
-      <c r="K39" s="45">
-        <v>45759874</v>
+        <v>166</v>
+      </c>
+      <c r="I39" s="47">
+        <v>44498018</v>
+      </c>
+      <c r="J39" s="47">
+        <v>923986</v>
+      </c>
+      <c r="K39" s="47">
+        <v>45422004</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75">
       <c r="A40" s="2"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="68"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="68" t="s">
+        <v>167</v>
+      </c>
       <c r="F40" s="68"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-    </row>
-    <row r="41" spans="1:11" ht="15">
+      <c r="G40" s="34"/>
+      <c r="H40" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" s="45">
+        <v>44879735</v>
+      </c>
+      <c r="J40" s="45">
+        <v>880139</v>
+      </c>
+      <c r="K40" s="45">
+        <v>45759874</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75">
       <c r="A41" s="2"/>
-      <c r="B41" s="52" t="s">
+      <c r="D41" s="14"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+    </row>
+    <row r="42" spans="1:11" ht="15">
+      <c r="A42" s="2"/>
+      <c r="B42" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="H41" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="H42" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
